--- a/QueriesExcel/4.xlsx
+++ b/QueriesExcel/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD81BE8-1072-4528-BAB2-83034057CF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D161651-7763-4363-BE4C-3CC233D84959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{47A768DF-88F9-4EF9-97EF-064B75BD51F2}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="72" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -912,34 +912,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="166" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -972,7 +945,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.97983877315" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7E364324-546C-41EC-9C75-71D41F216877}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.033430439813" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{7E364324-546C-41EC-9C75-71D41F216877}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="12">
     <cacheField name="[Measures].[Total Line USA]" caption="Total Line USA" numFmtId="0" hierarchy="155" level="32767"/>
@@ -1156,7 +1129,7 @@
     <cacheHierarchy uniqueName="[Dim Product].[Product Id UK]" caption="Product Id UK" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Id UK].[All]" allUniqueName="[Dim Product].[Product Id UK].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product Id USA]" caption="Product Id USA" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Id USA].[All]" allUniqueName="[Dim Product].[Product Id USA].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Product Key]" caption="Product Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Key].[All]" allUniqueName="[Dim Product].[Product Key].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Name]" caption="Product Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Name].[All]" allUniqueName="[Dim Product].[Product Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Name]" caption="Product Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Name].[All]" allUniqueName="[Dim Product].[Product Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Quantity Per Unit]" caption="Quantity Per Unit" attribute="1" defaultMemberUniqueName="[Dim Product].[Quantity Per Unit].[All]" allUniqueName="[Dim Product].[Quantity Per Unit].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Reorder Level]" caption="Reorder Level" attribute="1" defaultMemberUniqueName="[Dim Product].[Reorder Level].[All]" allUniqueName="[Dim Product].[Reorder Level].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Unit Price UK]" caption="Unit Price UK" attribute="1" defaultMemberUniqueName="[Dim Product].[Unit Price UK].[All]" allUniqueName="[Dim Product].[Unit Price UK].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
@@ -1210,7 +1183,7 @@
     <cacheHierarchy uniqueName="[Order Date].[Is Holiday]" caption="Order Date.Is Holiday" attribute="1" defaultMemberUniqueName="[Order Date].[Is Holiday].[All]" allUniqueName="[Order Date].[Is Holiday].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Is Weekend]" caption="Order Date.Is Weekend" attribute="1" defaultMemberUniqueName="[Order Date].[Is Weekend].[All]" allUniqueName="[Order Date].[Is Weekend].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Last Day Of Month Indicator]" caption="Order Date.Last Day Of Month Indicator" attribute="1" defaultMemberUniqueName="[Order Date].[Last Day Of Month Indicator].[All]" allUniqueName="[Order Date].[Last Day Of Month Indicator].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Month]" caption="Order Date.Month" attribute="1" defaultMemberUniqueName="[Order Date].[Month].[All]" allUniqueName="[Order Date].[Month].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Month Name]" caption="Order Date.Month Name" attribute="1" defaultMemberUniqueName="[Order Date].[Month Name].[All]" allUniqueName="[Order Date].[Month Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1220,7 +1193,7 @@
     <cacheHierarchy uniqueName="[Order Date].[Quarter]" caption="Order Date.Quarter" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter].[All]" allUniqueName="[Order Date].[Quarter].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Quarter Name]" caption="Order Date.Quarter Name" attribute="1" defaultMemberUniqueName="[Order Date].[Quarter Name].[All]" allUniqueName="[Order Date].[Quarter Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Season]" caption="Order Date.Season" attribute="1" defaultMemberUniqueName="[Order Date].[Season].[All]" allUniqueName="[Order Date].[Season].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Order Date].[Semester]" caption="Order Date.Semester" attribute="1" defaultMemberUniqueName="[Order Date].[Semester].[All]" allUniqueName="[Order Date].[Semester].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Order Date].[Semester Name]" caption="Order Date.Semester Name" attribute="1" defaultMemberUniqueName="[Order Date].[Semester Name].[All]" allUniqueName="[Order Date].[Semester Name].[All]" dimensionUniqueName="[Order Date]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1368,7 +1341,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F20BD32-3BA4-4D20-B0EA-1E7EA93E2F38}" name="PivotTable1" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F20BD32-3BA4-4D20-B0EA-1E7EA93E2F38}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:BA249" firstHeaderRow="1" firstDataRow="5" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -2425,7 +2398,7 @@
     <dataField fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="14">
+    <format dxfId="5">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="4">
@@ -2437,7 +2410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -2448,7 +2421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="3">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3393,10 +3366,10 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O10" s="5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P10" s="6">
         <v>36</v>
@@ -3417,10 +3390,10 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="5">
-        <v>0</v>
+        <v>196.875</v>
       </c>
       <c r="AE10" s="5">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="AF10" s="6">
         <v>157.5</v>
@@ -3433,10 +3406,10 @@
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
       <c r="AL10" s="5">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="AM10" s="5">
-        <v>0</v>
+        <v>208.125</v>
       </c>
       <c r="AN10" s="6">
         <v>180</v>
@@ -3449,10 +3422,10 @@
       <c r="AR10" s="6"/>
       <c r="AS10" s="6"/>
       <c r="AT10" s="5">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="AU10" s="5">
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="AV10" s="6">
         <v>90</v>
@@ -3461,10 +3434,10 @@
         <v>90</v>
       </c>
       <c r="AX10" s="5">
-        <v>0</v>
+        <v>579.375</v>
       </c>
       <c r="AY10" s="5">
-        <v>0</v>
+        <v>523.125</v>
       </c>
       <c r="AZ10" s="6">
         <v>463.5</v>
@@ -3592,10 +3565,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="5">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="C13" s="5">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="D13" s="6">
         <v>604.79999999999995</v>
@@ -3616,10 +3589,10 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="5">
-        <v>0</v>
+        <v>918.75</v>
       </c>
       <c r="S13" s="5">
-        <v>0</v>
+        <v>780.9375</v>
       </c>
       <c r="T13" s="6">
         <v>735</v>
@@ -3628,10 +3601,10 @@
         <v>624.75</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>534.375</v>
       </c>
       <c r="X13" s="6">
         <v>570</v>
@@ -3640,10 +3613,10 @@
         <v>427.5</v>
       </c>
       <c r="Z13" s="5">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="AA13" s="5">
-        <v>0</v>
+        <v>1453.5</v>
       </c>
       <c r="AB13" s="6">
         <v>1368</v>
@@ -3660,10 +3633,10 @@
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
       <c r="AL13" s="5">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AM13" s="5">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AN13" s="6">
         <v>420</v>
@@ -3676,10 +3649,10 @@
       <c r="AR13" s="6"/>
       <c r="AS13" s="6"/>
       <c r="AT13" s="5">
-        <v>0</v>
+        <v>583.75</v>
       </c>
       <c r="AU13" s="5">
-        <v>0</v>
+        <v>583.75</v>
       </c>
       <c r="AV13" s="6">
         <v>467</v>
@@ -3688,10 +3661,10 @@
         <v>467</v>
       </c>
       <c r="AX13" s="5">
-        <v>0</v>
+        <v>5206</v>
       </c>
       <c r="AY13" s="5">
-        <v>0</v>
+        <v>4633.5625</v>
       </c>
       <c r="AZ13" s="6">
         <v>4164.8</v>
@@ -3853,10 +3826,10 @@
         <v>1962</v>
       </c>
       <c r="AF16" s="6">
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="AG16" s="6">
-        <v>0</v>
+        <v>1569.6</v>
       </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -3873,10 +3846,10 @@
         <v>180</v>
       </c>
       <c r="AR16" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AS16" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
@@ -3889,10 +3862,10 @@
         <v>2142</v>
       </c>
       <c r="AZ16" s="6">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="BA16" s="6">
-        <v>0</v>
+        <v>1713.6</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
@@ -3967,10 +3940,10 @@
         <v>480</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="I18" s="6">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J18" s="5">
         <v>384</v>
@@ -3979,10 +3952,10 @@
         <v>384</v>
       </c>
       <c r="L18" s="6">
-        <v>0</v>
+        <v>307.2</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>307.2</v>
       </c>
       <c r="N18" s="5">
         <v>650</v>
@@ -3991,10 +3964,10 @@
         <v>650</v>
       </c>
       <c r="P18" s="6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -4007,10 +3980,10 @@
         <v>120</v>
       </c>
       <c r="X18" s="6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Y18" s="6">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Z18" s="5">
         <v>406.25</v>
@@ -4019,10 +3992,10 @@
         <v>386.25</v>
       </c>
       <c r="AB18" s="6">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="AC18" s="6">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AD18" s="5">
         <v>860</v>
@@ -4031,10 +4004,10 @@
         <v>835</v>
       </c>
       <c r="AF18" s="6">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="AG18" s="6">
-        <v>0</v>
+        <v>668</v>
       </c>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
@@ -4047,10 +4020,10 @@
         <v>68</v>
       </c>
       <c r="AN18" s="6">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AO18" s="6">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
@@ -4067,10 +4040,10 @@
         <v>2923.25</v>
       </c>
       <c r="AZ18" s="6">
-        <v>0</v>
+        <v>2384.1999999999998</v>
       </c>
       <c r="BA18" s="6">
-        <v>0</v>
+        <v>2338.6</v>
       </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.3">
@@ -4206,10 +4179,10 @@
         <v>84</v>
       </c>
       <c r="L21" s="6">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="M21" s="6">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -4222,10 +4195,10 @@
         <v>362</v>
       </c>
       <c r="T21" s="6">
-        <v>0</v>
+        <v>302.39999999999998</v>
       </c>
       <c r="U21" s="6">
-        <v>0</v>
+        <v>289.59999999999997</v>
       </c>
       <c r="V21" s="5">
         <v>1350</v>
@@ -4234,10 +4207,10 @@
         <v>1179</v>
       </c>
       <c r="X21" s="6">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="Y21" s="6">
-        <v>0</v>
+        <v>943.2</v>
       </c>
       <c r="Z21" s="5">
         <v>210</v>
@@ -4246,10 +4219,10 @@
         <v>210</v>
       </c>
       <c r="AB21" s="6">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AC21" s="6">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="AD21" s="5">
         <v>456</v>
@@ -4258,10 +4231,10 @@
         <v>456</v>
       </c>
       <c r="AF21" s="6">
-        <v>0</v>
+        <v>364.8</v>
       </c>
       <c r="AG21" s="6">
-        <v>0</v>
+        <v>364.8</v>
       </c>
       <c r="AH21" s="5">
         <v>315</v>
@@ -4270,10 +4243,10 @@
         <v>236</v>
       </c>
       <c r="AJ21" s="6">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="AK21" s="6">
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="AL21" s="5">
         <v>1050</v>
@@ -4282,10 +4255,10 @@
         <v>945</v>
       </c>
       <c r="AN21" s="6">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="AO21" s="6">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
@@ -4302,10 +4275,10 @@
         <v>3472</v>
       </c>
       <c r="AZ21" s="6">
-        <v>0</v>
+        <v>3074.3999999999996</v>
       </c>
       <c r="BA21" s="6">
-        <v>0</v>
+        <v>2777.6</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.3">
@@ -4427,10 +4400,10 @@
         <v>79</v>
       </c>
       <c r="B24" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D24" s="6">
         <v>40</v>
@@ -4439,10 +4412,10 @@
         <v>32</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="H24" s="6">
         <v>576</v>
@@ -4455,10 +4428,10 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="O24" s="5">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="P24" s="6">
         <v>288</v>
@@ -4471,10 +4444,10 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="5">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="W24" s="5">
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="X24" s="6">
         <v>75</v>
@@ -4483,10 +4456,10 @@
         <v>75</v>
       </c>
       <c r="Z24" s="5">
-        <v>0</v>
+        <v>1706.25</v>
       </c>
       <c r="AA24" s="5">
-        <v>0</v>
+        <v>1279.6875</v>
       </c>
       <c r="AB24" s="6">
         <v>1365</v>
@@ -4495,10 +4468,10 @@
         <v>1023.75</v>
       </c>
       <c r="AD24" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AE24" s="5">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="AF24" s="6">
         <v>720</v>
@@ -4507,10 +4480,10 @@
         <v>576</v>
       </c>
       <c r="AH24" s="5">
-        <v>0</v>
+        <v>2723.75</v>
       </c>
       <c r="AI24" s="5">
-        <v>0</v>
+        <v>2243.5</v>
       </c>
       <c r="AJ24" s="6">
         <v>2179</v>
@@ -4519,10 +4492,10 @@
         <v>1794.8</v>
       </c>
       <c r="AL24" s="5">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AM24" s="5">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AN24" s="6">
         <v>344</v>
@@ -4531,10 +4504,10 @@
         <v>344</v>
       </c>
       <c r="AP24" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="AQ24" s="5">
-        <v>0</v>
+        <v>843.75</v>
       </c>
       <c r="AR24" s="6">
         <v>900</v>
@@ -4543,10 +4516,10 @@
         <v>675</v>
       </c>
       <c r="AT24" s="5">
-        <v>0</v>
+        <v>806.25</v>
       </c>
       <c r="AU24" s="5">
-        <v>0</v>
+        <v>806.25</v>
       </c>
       <c r="AV24" s="6">
         <v>645</v>
@@ -4555,10 +4528,10 @@
         <v>645</v>
       </c>
       <c r="AX24" s="5">
-        <v>0</v>
+        <v>8915</v>
       </c>
       <c r="AY24" s="5">
-        <v>0</v>
+        <v>7464.9375</v>
       </c>
       <c r="AZ24" s="6">
         <v>7132</v>
@@ -4696,10 +4669,10 @@
         <v>1172</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
+        <v>937.6</v>
       </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>937.6</v>
       </c>
       <c r="J27" s="5">
         <v>230.4</v>
@@ -4708,10 +4681,10 @@
         <v>230.4</v>
       </c>
       <c r="L27" s="6">
-        <v>0</v>
+        <v>184.32</v>
       </c>
       <c r="M27" s="6">
-        <v>0</v>
+        <v>184.32</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
@@ -4724,10 +4697,10 @@
         <v>934</v>
       </c>
       <c r="T27" s="6">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="U27" s="6">
-        <v>0</v>
+        <v>747.19999999999993</v>
       </c>
       <c r="V27" s="5">
         <v>879</v>
@@ -4736,10 +4709,10 @@
         <v>860</v>
       </c>
       <c r="X27" s="6">
-        <v>0</v>
+        <v>703.2</v>
       </c>
       <c r="Y27" s="6">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="Z27" s="5">
         <v>258</v>
@@ -4748,10 +4721,10 @@
         <v>258</v>
       </c>
       <c r="AB27" s="6">
-        <v>0</v>
+        <v>206.4</v>
       </c>
       <c r="AC27" s="6">
-        <v>0</v>
+        <v>206.4</v>
       </c>
       <c r="AD27" s="5">
         <v>838.5</v>
@@ -4760,10 +4733,10 @@
         <v>806.5</v>
       </c>
       <c r="AF27" s="6">
-        <v>0</v>
+        <v>670.8</v>
       </c>
       <c r="AG27" s="6">
-        <v>0</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="AH27" s="5">
         <v>95</v>
@@ -4772,10 +4745,10 @@
         <v>92</v>
       </c>
       <c r="AJ27" s="6">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AK27" s="6">
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AL27" s="5">
         <v>864</v>
@@ -4784,10 +4757,10 @@
         <v>691</v>
       </c>
       <c r="AN27" s="6">
-        <v>0</v>
+        <v>691.2</v>
       </c>
       <c r="AO27" s="6">
-        <v>0</v>
+        <v>552.79999999999995</v>
       </c>
       <c r="AP27" s="5">
         <v>828</v>
@@ -4796,10 +4769,10 @@
         <v>684</v>
       </c>
       <c r="AR27" s="6">
-        <v>0</v>
+        <v>662.4</v>
       </c>
       <c r="AS27" s="6">
-        <v>0</v>
+        <v>547.20000000000005</v>
       </c>
       <c r="AT27" s="5">
         <v>1560</v>
@@ -4808,10 +4781,10 @@
         <v>1302</v>
       </c>
       <c r="AV27" s="6">
-        <v>0</v>
+        <v>1248</v>
       </c>
       <c r="AW27" s="6">
-        <v>0</v>
+        <v>1041.5999999999999</v>
       </c>
       <c r="AX27" s="5">
         <v>7824.9</v>
@@ -4820,10 +4793,10 @@
         <v>7029.9</v>
       </c>
       <c r="AZ27" s="6">
-        <v>0</v>
+        <v>6259.9199999999992</v>
       </c>
       <c r="BA27" s="6">
-        <v>0</v>
+        <v>5623.92</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
@@ -4953,10 +4926,10 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K30" s="5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="L30" s="6">
         <v>108</v>
@@ -4973,10 +4946,10 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="5">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="W30" s="5">
-        <v>0</v>
+        <v>213.75</v>
       </c>
       <c r="X30" s="6">
         <v>180</v>
@@ -4993,10 +4966,10 @@
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AI30" s="5">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AJ30" s="6">
         <v>288</v>
@@ -5005,10 +4978,10 @@
         <v>288</v>
       </c>
       <c r="AL30" s="5">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="AM30" s="5">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="AN30" s="6">
         <v>126</v>
@@ -5025,10 +4998,10 @@
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="5">
-        <v>0</v>
+        <v>877.5</v>
       </c>
       <c r="AY30" s="5">
-        <v>0</v>
+        <v>866.25</v>
       </c>
       <c r="AZ30" s="6">
         <v>702</v>
@@ -5162,10 +5135,10 @@
         <v>65</v>
       </c>
       <c r="D33" s="6">
-        <v>0</v>
+        <v>64.8</v>
       </c>
       <c r="E33" s="6">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -5190,10 +5163,10 @@
         <v>164</v>
       </c>
       <c r="X33" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Y33" s="6">
-        <v>0</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
@@ -5206,10 +5179,10 @@
         <v>63</v>
       </c>
       <c r="AF33" s="6">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AG33" s="6">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
@@ -5222,10 +5195,10 @@
         <v>274</v>
       </c>
       <c r="AN33" s="6">
-        <v>0</v>
+        <v>230.4</v>
       </c>
       <c r="AO33" s="6">
-        <v>0</v>
+        <v>219.2</v>
       </c>
       <c r="AP33" s="5">
         <v>112.5</v>
@@ -5234,10 +5207,10 @@
         <v>101.5</v>
       </c>
       <c r="AR33" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AS33" s="6">
-        <v>0</v>
+        <v>81.2</v>
       </c>
       <c r="AT33" s="5">
         <v>157.5</v>
@@ -5246,10 +5219,10 @@
         <v>157.5</v>
       </c>
       <c r="AV33" s="6">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AW33" s="6">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AX33" s="5">
         <v>882</v>
@@ -5258,10 +5231,10 @@
         <v>825</v>
       </c>
       <c r="AZ33" s="6">
-        <v>0</v>
+        <v>705.6</v>
       </c>
       <c r="BA33" s="6">
-        <v>0</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
@@ -5383,10 +5356,10 @@
         <v>82</v>
       </c>
       <c r="B36" s="5">
-        <v>0</v>
+        <v>288.75</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>288.75</v>
       </c>
       <c r="D36" s="6">
         <v>231</v>
@@ -5403,10 +5376,10 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="5">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="O36" s="5">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="P36" s="6">
         <v>460</v>
@@ -5415,10 +5388,10 @@
         <v>368</v>
       </c>
       <c r="R36" s="5">
-        <v>0</v>
+        <v>1258.5625</v>
       </c>
       <c r="S36" s="5">
-        <v>0</v>
+        <v>1253.1343999999999</v>
       </c>
       <c r="T36" s="6">
         <v>1006.85</v>
@@ -5427,10 +5400,10 @@
         <v>1002.5074999999999</v>
       </c>
       <c r="V36" s="5">
-        <v>0</v>
+        <v>168.875</v>
       </c>
       <c r="W36" s="5">
-        <v>0</v>
+        <v>168.875</v>
       </c>
       <c r="X36" s="6">
         <v>135.1</v>
@@ -5447,10 +5420,10 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="5">
-        <v>0</v>
+        <v>2070</v>
       </c>
       <c r="AI36" s="5">
-        <v>0</v>
+        <v>1989.5</v>
       </c>
       <c r="AJ36" s="6">
         <v>1656</v>
@@ -5459,10 +5432,10 @@
         <v>1591.6</v>
       </c>
       <c r="AL36" s="5">
-        <v>0</v>
+        <v>505.5</v>
       </c>
       <c r="AM36" s="5">
-        <v>0</v>
+        <v>487.40620000000001</v>
       </c>
       <c r="AN36" s="6">
         <v>404.4</v>
@@ -5479,10 +5452,10 @@
       <c r="AV36" s="6"/>
       <c r="AW36" s="6"/>
       <c r="AX36" s="5">
-        <v>0</v>
+        <v>4866.6875</v>
       </c>
       <c r="AY36" s="5">
-        <v>0</v>
+        <v>4647.6656000000003</v>
       </c>
       <c r="AZ36" s="6">
         <v>3893.35</v>
@@ -5640,10 +5613,10 @@
         <v>920</v>
       </c>
       <c r="AB39" s="6">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="AC39" s="6">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
@@ -5672,10 +5645,10 @@
         <v>920</v>
       </c>
       <c r="AZ39" s="6">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="BA39" s="6">
-        <v>0</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.3">
@@ -5746,10 +5719,10 @@
         <v>1472</v>
       </c>
       <c r="D41" s="6">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="E41" s="6">
-        <v>0</v>
+        <v>1177.5999999999999</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -5762,10 +5735,10 @@
         <v>197.5</v>
       </c>
       <c r="L41" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="M41" s="6">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="N41" s="5">
         <v>544.6</v>
@@ -5774,10 +5747,10 @@
         <v>490.6</v>
       </c>
       <c r="P41" s="6">
-        <v>0</v>
+        <v>435.68</v>
       </c>
       <c r="Q41" s="6">
-        <v>0</v>
+        <v>392.48</v>
       </c>
       <c r="R41" s="5">
         <v>408.45</v>
@@ -5786,10 +5759,10 @@
         <v>408.45</v>
       </c>
       <c r="T41" s="6">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="U41" s="6">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -5810,10 +5783,10 @@
         <v>408.45</v>
       </c>
       <c r="AJ41" s="6">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="AK41" s="6">
-        <v>0</v>
+        <v>326.76</v>
       </c>
       <c r="AL41" s="5">
         <v>194.5</v>
@@ -5822,10 +5795,10 @@
         <v>194.5</v>
       </c>
       <c r="AN41" s="6">
-        <v>0</v>
+        <v>155.6</v>
       </c>
       <c r="AO41" s="6">
-        <v>0</v>
+        <v>155.6</v>
       </c>
       <c r="AP41" s="5"/>
       <c r="AQ41" s="5"/>
@@ -5838,10 +5811,10 @@
         <v>26</v>
       </c>
       <c r="AV41" s="6">
-        <v>0</v>
+        <v>24.8</v>
       </c>
       <c r="AW41" s="6">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="AX41" s="5">
         <v>3369.4999999999995</v>
@@ -5850,10 +5823,10 @@
         <v>3197.4999999999995</v>
       </c>
       <c r="AZ41" s="6">
-        <v>0</v>
+        <v>2695.6</v>
       </c>
       <c r="BA41" s="6">
-        <v>0</v>
+        <v>2558.0000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.3">
@@ -5928,10 +5901,10 @@
         <v>213</v>
       </c>
       <c r="H43" s="6">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>170.4</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -5956,10 +5929,10 @@
         <v>70</v>
       </c>
       <c r="AB43" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AC43" s="6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AD43" s="5">
         <v>420</v>
@@ -5968,10 +5941,10 @@
         <v>420</v>
       </c>
       <c r="AF43" s="6">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="AG43" s="6">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
@@ -5996,10 +5969,10 @@
         <v>703</v>
       </c>
       <c r="AZ43" s="6">
-        <v>0</v>
+        <v>571.20000000000005</v>
       </c>
       <c r="BA43" s="6">
-        <v>0</v>
+        <v>562.4</v>
       </c>
     </row>
     <row r="44" spans="1:53" x14ac:dyDescent="0.3">
@@ -6171,10 +6144,10 @@
         <v>655.5</v>
       </c>
       <c r="AV46" s="6">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AW46" s="6">
-        <v>0</v>
+        <v>524.4</v>
       </c>
       <c r="AX46" s="5">
         <v>712.5</v>
@@ -6183,10 +6156,10 @@
         <v>655.5</v>
       </c>
       <c r="AZ46" s="6">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="BA46" s="6">
-        <v>0</v>
+        <v>524.4</v>
       </c>
     </row>
     <row r="47" spans="1:53" x14ac:dyDescent="0.3">
@@ -6285,10 +6258,10 @@
         <v>493</v>
       </c>
       <c r="AF48" s="6">
-        <v>0</v>
+        <v>394.4</v>
       </c>
       <c r="AG48" s="6">
-        <v>0</v>
+        <v>394.4</v>
       </c>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
@@ -6301,10 +6274,10 @@
         <v>98.6</v>
       </c>
       <c r="AN48" s="6">
-        <v>0</v>
+        <v>78.88</v>
       </c>
       <c r="AO48" s="6">
-        <v>0</v>
+        <v>78.88</v>
       </c>
       <c r="AP48" s="5">
         <v>2218.5</v>
@@ -6313,10 +6286,10 @@
         <v>2218.5</v>
       </c>
       <c r="AR48" s="6">
-        <v>0</v>
+        <v>1774.8000000000002</v>
       </c>
       <c r="AS48" s="6">
-        <v>0</v>
+        <v>1774.8000000000002</v>
       </c>
       <c r="AT48" s="5"/>
       <c r="AU48" s="5"/>
@@ -6329,10 +6302,10 @@
         <v>2810.1</v>
       </c>
       <c r="AZ48" s="6">
-        <v>0</v>
+        <v>2248.0800000000004</v>
       </c>
       <c r="BA48" s="6">
-        <v>0</v>
+        <v>2248.0800000000004</v>
       </c>
     </row>
     <row r="49" spans="1:53" x14ac:dyDescent="0.3">
@@ -6454,10 +6427,10 @@
         <v>78</v>
       </c>
       <c r="B51" s="5">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="C51" s="5">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="D51" s="6">
         <v>339.2</v>
@@ -6482,10 +6455,10 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="W51" s="5">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="X51" s="6">
         <v>140</v>
@@ -6502,10 +6475,10 @@
       <c r="AF51" s="6"/>
       <c r="AG51" s="6"/>
       <c r="AH51" s="5">
-        <v>0</v>
+        <v>437.5</v>
       </c>
       <c r="AI51" s="5">
-        <v>0</v>
+        <v>437.5</v>
       </c>
       <c r="AJ51" s="6">
         <v>350</v>
@@ -6522,10 +6495,10 @@
       <c r="AR51" s="6"/>
       <c r="AS51" s="6"/>
       <c r="AT51" s="5">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AU51" s="5">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AV51" s="6">
         <v>196</v>
@@ -6534,10 +6507,10 @@
         <v>196</v>
       </c>
       <c r="AX51" s="5">
-        <v>0</v>
+        <v>1281.5</v>
       </c>
       <c r="AY51" s="5">
-        <v>0</v>
+        <v>1181.75</v>
       </c>
       <c r="AZ51" s="6">
         <v>1025.2</v>
@@ -6683,10 +6656,10 @@
         <v>1052</v>
       </c>
       <c r="P54" s="6">
-        <v>0</v>
+        <v>841.6</v>
       </c>
       <c r="Q54" s="6">
-        <v>0</v>
+        <v>841.6</v>
       </c>
       <c r="R54" s="5">
         <v>180</v>
@@ -6695,10 +6668,10 @@
         <v>180</v>
       </c>
       <c r="T54" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="U54" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
@@ -6715,10 +6688,10 @@
         <v>298</v>
       </c>
       <c r="AF54" s="6">
-        <v>0</v>
+        <v>238.4</v>
       </c>
       <c r="AG54" s="6">
-        <v>0</v>
+        <v>238.4</v>
       </c>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
@@ -6731,10 +6704,10 @@
         <v>190</v>
       </c>
       <c r="AN54" s="6">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="AO54" s="6">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="AP54" s="5">
         <v>144</v>
@@ -6743,10 +6716,10 @@
         <v>144</v>
       </c>
       <c r="AR54" s="6">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="AS54" s="6">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="AT54" s="5">
         <v>755</v>
@@ -6755,10 +6728,10 @@
         <v>646</v>
       </c>
       <c r="AV54" s="6">
-        <v>0</v>
+        <v>604</v>
       </c>
       <c r="AW54" s="6">
-        <v>0</v>
+        <v>516.80000000000007</v>
       </c>
       <c r="AX54" s="5">
         <v>2619</v>
@@ -6767,10 +6740,10 @@
         <v>2510</v>
       </c>
       <c r="AZ54" s="6">
-        <v>0</v>
+        <v>2095.1999999999998</v>
       </c>
       <c r="BA54" s="6">
-        <v>0</v>
+        <v>2008.0000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:53" x14ac:dyDescent="0.3">
@@ -6857,10 +6830,10 @@
         <v>400</v>
       </c>
       <c r="T56" s="6">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="U56" s="6">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
@@ -6889,10 +6862,10 @@
         <v>200</v>
       </c>
       <c r="AR56" s="6">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS56" s="6">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AT56" s="5"/>
       <c r="AU56" s="5"/>
@@ -6905,10 +6878,10 @@
         <v>600</v>
       </c>
       <c r="AZ56" s="6">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="BA56" s="6">
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:53" x14ac:dyDescent="0.3">
@@ -7034,10 +7007,10 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="5">
-        <v>0</v>
+        <v>5890</v>
       </c>
       <c r="G59" s="5">
-        <v>0</v>
+        <v>5018</v>
       </c>
       <c r="H59" s="6">
         <v>4712</v>
@@ -7054,10 +7027,10 @@
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
       <c r="R59" s="5">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="S59" s="5">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="T59" s="6">
         <v>660</v>
@@ -7066,10 +7039,10 @@
         <v>660</v>
       </c>
       <c r="V59" s="5">
-        <v>0</v>
+        <v>1487.5</v>
       </c>
       <c r="W59" s="5">
-        <v>0</v>
+        <v>1115.625</v>
       </c>
       <c r="X59" s="6">
         <v>1190</v>
@@ -7086,10 +7059,10 @@
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="5">
-        <v>0</v>
+        <v>3612.5</v>
       </c>
       <c r="AI59" s="5">
-        <v>0</v>
+        <v>3495.625</v>
       </c>
       <c r="AJ59" s="6">
         <v>2890</v>
@@ -7098,10 +7071,10 @@
         <v>2796.5</v>
       </c>
       <c r="AL59" s="5">
-        <v>0</v>
+        <v>3437.5</v>
       </c>
       <c r="AM59" s="5">
-        <v>0</v>
+        <v>3437.5</v>
       </c>
       <c r="AN59" s="6">
         <v>2750</v>
@@ -7110,10 +7083,10 @@
         <v>2750</v>
       </c>
       <c r="AP59" s="5">
-        <v>0</v>
+        <v>4812.5</v>
       </c>
       <c r="AQ59" s="5">
-        <v>0</v>
+        <v>4554.6875</v>
       </c>
       <c r="AR59" s="6">
         <v>3850</v>
@@ -7126,10 +7099,10 @@
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
       <c r="AX59" s="5">
-        <v>0</v>
+        <v>20065</v>
       </c>
       <c r="AY59" s="5">
-        <v>0</v>
+        <v>18446.4375</v>
       </c>
       <c r="AZ59" s="6">
         <v>16052</v>
@@ -7257,10 +7230,10 @@
         <v>79</v>
       </c>
       <c r="B62" s="5">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="C62" s="5">
-        <v>0</v>
+        <v>1390</v>
       </c>
       <c r="D62" s="6">
         <v>1112</v>
@@ -7277,10 +7250,10 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="5">
-        <v>0</v>
+        <v>2868.75</v>
       </c>
       <c r="O62" s="5">
-        <v>0</v>
+        <v>2468.75</v>
       </c>
       <c r="P62" s="6">
         <v>2295</v>
@@ -7289,10 +7262,10 @@
         <v>1975</v>
       </c>
       <c r="R62" s="5">
-        <v>0</v>
+        <v>2486.25</v>
       </c>
       <c r="S62" s="5">
-        <v>0</v>
+        <v>2407.1875</v>
       </c>
       <c r="T62" s="6">
         <v>1989</v>
@@ -7301,10 +7274,10 @@
         <v>1925.75</v>
       </c>
       <c r="V62" s="5">
-        <v>0</v>
+        <v>1171.875</v>
       </c>
       <c r="W62" s="5">
-        <v>0</v>
+        <v>1042.9688000000001</v>
       </c>
       <c r="X62" s="6">
         <v>937.5</v>
@@ -7325,10 +7298,10 @@
       <c r="AJ62" s="6"/>
       <c r="AK62" s="6"/>
       <c r="AL62" s="5">
-        <v>0</v>
+        <v>1336.25</v>
       </c>
       <c r="AM62" s="5">
-        <v>0</v>
+        <v>1132.6875</v>
       </c>
       <c r="AN62" s="6">
         <v>1069</v>
@@ -7337,10 +7310,10 @@
         <v>906.15</v>
       </c>
       <c r="AP62" s="5">
-        <v>0</v>
+        <v>351.375</v>
       </c>
       <c r="AQ62" s="5">
-        <v>0</v>
+        <v>349.03120000000001</v>
       </c>
       <c r="AR62" s="6">
         <v>281.10000000000002</v>
@@ -7353,10 +7326,10 @@
       <c r="AV62" s="6"/>
       <c r="AW62" s="6"/>
       <c r="AX62" s="5">
-        <v>0</v>
+        <v>9604.5</v>
       </c>
       <c r="AY62" s="5">
-        <v>0</v>
+        <v>8790.625</v>
       </c>
       <c r="AZ62" s="6">
         <v>7683.6</v>
@@ -7490,10 +7463,10 @@
         <v>360</v>
       </c>
       <c r="D65" s="6">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="E65" s="6">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="F65" s="5">
         <v>504</v>
@@ -7502,10 +7475,10 @@
         <v>504</v>
       </c>
       <c r="H65" s="6">
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="I65" s="6">
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -7518,10 +7491,10 @@
         <v>126</v>
       </c>
       <c r="P65" s="6">
-        <v>0</v>
+        <v>100.80000000000001</v>
       </c>
       <c r="Q65" s="6">
-        <v>0</v>
+        <v>100.80000000000001</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
@@ -7538,10 +7511,10 @@
         <v>122</v>
       </c>
       <c r="AB65" s="6">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="AC65" s="6">
-        <v>0</v>
+        <v>97.6</v>
       </c>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -7558,10 +7531,10 @@
         <v>140</v>
       </c>
       <c r="AN65" s="6">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AO65" s="6">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AP65" s="5">
         <v>910.5</v>
@@ -7570,10 +7543,10 @@
         <v>845.5</v>
       </c>
       <c r="AR65" s="6">
-        <v>0</v>
+        <v>728.4</v>
       </c>
       <c r="AS65" s="6">
-        <v>0</v>
+        <v>676.4</v>
       </c>
       <c r="AT65" s="5">
         <v>966</v>
@@ -7582,10 +7555,10 @@
         <v>932</v>
       </c>
       <c r="AV65" s="6">
-        <v>0</v>
+        <v>772.8</v>
       </c>
       <c r="AW65" s="6">
-        <v>0</v>
+        <v>745.59999999999991</v>
       </c>
       <c r="AX65" s="5">
         <v>3168.5</v>
@@ -7594,10 +7567,10 @@
         <v>3029.5</v>
       </c>
       <c r="AZ65" s="6">
-        <v>0</v>
+        <v>2534.8000000000002</v>
       </c>
       <c r="BA65" s="6">
-        <v>0</v>
+        <v>2423.6</v>
       </c>
     </row>
     <row r="66" spans="1:53" x14ac:dyDescent="0.3">
@@ -7719,10 +7692,10 @@
         <v>78</v>
       </c>
       <c r="B68" s="5">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C68" s="5">
-        <v>0</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="D68" s="6">
         <v>259.2</v>
@@ -7731,10 +7704,10 @@
         <v>220.32</v>
       </c>
       <c r="F68" s="5">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="H68" s="6">
         <v>201.6</v>
@@ -7751,10 +7724,10 @@
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
       <c r="R68" s="5">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="S68" s="5">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="T68" s="6">
         <v>612</v>
@@ -7763,10 +7736,10 @@
         <v>612</v>
       </c>
       <c r="V68" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="W68" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="X68" s="6">
         <v>900</v>
@@ -7779,10 +7752,10 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AE68" s="5">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AF68" s="6">
         <v>72</v>
@@ -7799,10 +7772,10 @@
       <c r="AN68" s="6"/>
       <c r="AO68" s="6"/>
       <c r="AP68" s="5">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AQ68" s="5">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AR68" s="6">
         <v>360</v>
@@ -7811,10 +7784,10 @@
         <v>360</v>
       </c>
       <c r="AT68" s="5">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="AU68" s="5">
-        <v>0</v>
+        <v>337.5</v>
       </c>
       <c r="AV68" s="6">
         <v>270</v>
@@ -7823,10 +7796,10 @@
         <v>270</v>
       </c>
       <c r="AX68" s="5">
-        <v>0</v>
+        <v>3343.5</v>
       </c>
       <c r="AY68" s="5">
-        <v>0</v>
+        <v>3276.9</v>
       </c>
       <c r="AZ68" s="6">
         <v>2674.8</v>
@@ -7901,10 +7874,10 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="5">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="G70" s="5">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H70" s="6">
         <v>520</v>
@@ -7945,10 +7918,10 @@
       <c r="AN70" s="6"/>
       <c r="AO70" s="6"/>
       <c r="AP70" s="5">
-        <v>0</v>
+        <v>406.25</v>
       </c>
       <c r="AQ70" s="5">
-        <v>0</v>
+        <v>365.625</v>
       </c>
       <c r="AR70" s="6">
         <v>325</v>
@@ -7961,10 +7934,10 @@
       <c r="AV70" s="6"/>
       <c r="AW70" s="6"/>
       <c r="AX70" s="5">
-        <v>0</v>
+        <v>1056.25</v>
       </c>
       <c r="AY70" s="5">
-        <v>0</v>
+        <v>1015.625</v>
       </c>
       <c r="AZ70" s="6">
         <v>845</v>
@@ -8092,10 +8065,10 @@
         <v>83</v>
       </c>
       <c r="B73" s="5">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="C73" s="5">
-        <v>0</v>
+        <v>1549.2</v>
       </c>
       <c r="D73" s="6">
         <v>1286.4000000000001</v>
@@ -8112,10 +8085,10 @@
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="5">
-        <v>0</v>
+        <v>2886.1875</v>
       </c>
       <c r="O73" s="5">
-        <v>0</v>
+        <v>2631.4375</v>
       </c>
       <c r="P73" s="6">
         <v>2308.9499999999998</v>
@@ -8124,10 +8097,10 @@
         <v>2105.15</v>
       </c>
       <c r="R73" s="5">
-        <v>0</v>
+        <v>789.375</v>
       </c>
       <c r="S73" s="5">
-        <v>0</v>
+        <v>749.90620000000001</v>
       </c>
       <c r="T73" s="6">
         <v>631.5</v>
@@ -8136,10 +8109,10 @@
         <v>599.92499999999995</v>
       </c>
       <c r="V73" s="5">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="W73" s="5">
-        <v>0</v>
+        <v>1237.5</v>
       </c>
       <c r="X73" s="6">
         <v>1100</v>
@@ -8148,10 +8121,10 @@
         <v>990</v>
       </c>
       <c r="Z73" s="5">
-        <v>0</v>
+        <v>687.5</v>
       </c>
       <c r="AA73" s="5">
-        <v>0</v>
+        <v>687.5</v>
       </c>
       <c r="AB73" s="6">
         <v>550</v>
@@ -8160,10 +8133,10 @@
         <v>550</v>
       </c>
       <c r="AD73" s="5">
-        <v>0</v>
+        <v>315.75</v>
       </c>
       <c r="AE73" s="5">
-        <v>0</v>
+        <v>252.6</v>
       </c>
       <c r="AF73" s="6">
         <v>252.6</v>
@@ -8172,10 +8145,10 @@
         <v>202.08</v>
       </c>
       <c r="AH73" s="5">
-        <v>0</v>
+        <v>593.125</v>
       </c>
       <c r="AI73" s="5">
-        <v>0</v>
+        <v>560.125</v>
       </c>
       <c r="AJ73" s="6">
         <v>474.5</v>
@@ -8184,10 +8157,10 @@
         <v>448.1</v>
       </c>
       <c r="AL73" s="5">
-        <v>0</v>
+        <v>3220.125</v>
       </c>
       <c r="AM73" s="5">
-        <v>0</v>
+        <v>3009.625</v>
       </c>
       <c r="AN73" s="6">
         <v>2576.1</v>
@@ -8196,10 +8169,10 @@
         <v>2407.6999999999998</v>
       </c>
       <c r="AP73" s="5">
-        <v>0</v>
+        <v>1315.625</v>
       </c>
       <c r="AQ73" s="5">
-        <v>0</v>
+        <v>1302.4688000000001</v>
       </c>
       <c r="AR73" s="6">
         <v>1052.5</v>
@@ -8208,10 +8181,10 @@
         <v>1041.9749999999999</v>
       </c>
       <c r="AT73" s="5">
-        <v>0</v>
+        <v>1710.3125</v>
       </c>
       <c r="AU73" s="5">
-        <v>0</v>
+        <v>1624.7969000000001</v>
       </c>
       <c r="AV73" s="6">
         <v>1368.25</v>
@@ -8220,10 +8193,10 @@
         <v>1299.8375000000001</v>
       </c>
       <c r="AX73" s="5">
-        <v>0</v>
+        <v>14501</v>
       </c>
       <c r="AY73" s="5">
-        <v>0</v>
+        <v>13605.1594</v>
       </c>
       <c r="AZ73" s="6">
         <v>11600.800000000001</v>
@@ -8351,10 +8324,10 @@
         <v>78</v>
       </c>
       <c r="B76" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="C76" s="5">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D76" s="6">
         <v>86.4</v>
@@ -8363,10 +8336,10 @@
         <v>86.4</v>
       </c>
       <c r="F76" s="5">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
+        <v>13175</v>
       </c>
       <c r="H76" s="6">
         <v>10540</v>
@@ -8387,10 +8360,10 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="5">
-        <v>0</v>
+        <v>9881.25</v>
       </c>
       <c r="W76" s="5">
-        <v>0</v>
+        <v>9881.25</v>
       </c>
       <c r="X76" s="6">
         <v>7905</v>
@@ -8407,10 +8380,10 @@
       <c r="AF76" s="6"/>
       <c r="AG76" s="6"/>
       <c r="AH76" s="5">
-        <v>0</v>
+        <v>5458.125</v>
       </c>
       <c r="AI76" s="5">
-        <v>0</v>
+        <v>4905.5625</v>
       </c>
       <c r="AJ76" s="6">
         <v>4366.5</v>
@@ -8419,10 +8392,10 @@
         <v>3924.45</v>
       </c>
       <c r="AL76" s="5">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AM76" s="5">
-        <v>0</v>
+        <v>398.25</v>
       </c>
       <c r="AN76" s="6">
         <v>324</v>
@@ -8439,10 +8412,10 @@
       <c r="AV76" s="6"/>
       <c r="AW76" s="6"/>
       <c r="AX76" s="5">
-        <v>0</v>
+        <v>29027.375</v>
       </c>
       <c r="AY76" s="5">
-        <v>0</v>
+        <v>28468.0625</v>
       </c>
       <c r="AZ76" s="6">
         <v>23221.9</v>
@@ -8570,10 +8543,10 @@
         <v>81</v>
       </c>
       <c r="B79" s="5">
-        <v>0</v>
+        <v>1812.5</v>
       </c>
       <c r="C79" s="5">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="D79" s="6">
         <v>1450</v>
@@ -8582,10 +8555,10 @@
         <v>1281.6000000000001</v>
       </c>
       <c r="F79" s="5">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="G79" s="5">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="H79" s="6">
         <v>1064</v>
@@ -8598,10 +8571,10 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="5">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="O79" s="5">
-        <v>0</v>
+        <v>3857</v>
       </c>
       <c r="P79" s="6">
         <v>3085.6</v>
@@ -8610,10 +8583,10 @@
         <v>3085.6</v>
       </c>
       <c r="R79" s="5">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="S79" s="5">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="T79" s="6">
         <v>78</v>
@@ -8622,10 +8595,10 @@
         <v>78</v>
       </c>
       <c r="V79" s="5">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="W79" s="5">
-        <v>0</v>
+        <v>1211.25</v>
       </c>
       <c r="X79" s="6">
         <v>1140</v>
@@ -8638,10 +8611,10 @@
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="5">
-        <v>0</v>
+        <v>1817.5</v>
       </c>
       <c r="AE79" s="5">
-        <v>0</v>
+        <v>1817.5</v>
       </c>
       <c r="AF79" s="6">
         <v>1454</v>
@@ -8654,10 +8627,10 @@
       <c r="AJ79" s="6"/>
       <c r="AK79" s="6"/>
       <c r="AL79" s="5">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="AM79" s="5">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="AN79" s="6">
         <v>2280</v>
@@ -8666,10 +8639,10 @@
         <v>2280</v>
       </c>
       <c r="AP79" s="5">
-        <v>0</v>
+        <v>1766.25</v>
       </c>
       <c r="AQ79" s="5">
-        <v>0</v>
+        <v>1324.6875</v>
       </c>
       <c r="AR79" s="6">
         <v>1413</v>
@@ -8678,10 +8651,10 @@
         <v>1059.75</v>
       </c>
       <c r="AT79" s="5">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="AU79" s="5">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="AV79" s="6">
         <v>1140</v>
@@ -8690,10 +8663,10 @@
         <v>1140</v>
       </c>
       <c r="AX79" s="5">
-        <v>0</v>
+        <v>16380.75</v>
       </c>
       <c r="AY79" s="5">
-        <v>0</v>
+        <v>15514.9375</v>
       </c>
       <c r="AZ79" s="6">
         <v>13104.6</v>
@@ -8821,10 +8794,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="5">
-        <v>0</v>
+        <v>136.875</v>
       </c>
       <c r="C82" s="5">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="D82" s="6">
         <v>109.5</v>
@@ -8833,10 +8806,10 @@
         <v>87.6</v>
       </c>
       <c r="F82" s="5">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="G82" s="5">
-        <v>0</v>
+        <v>837.5</v>
       </c>
       <c r="H82" s="6">
         <v>760</v>
@@ -8849,10 +8822,10 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="5">
-        <v>0</v>
+        <v>4448.75</v>
       </c>
       <c r="O82" s="5">
-        <v>0</v>
+        <v>4348.75</v>
       </c>
       <c r="P82" s="6">
         <v>3559</v>
@@ -8865,10 +8838,10 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="5">
-        <v>0</v>
+        <v>736.875</v>
       </c>
       <c r="W82" s="5">
-        <v>0</v>
+        <v>729.375</v>
       </c>
       <c r="X82" s="6">
         <v>589.5</v>
@@ -8877,10 +8850,10 @@
         <v>583.5</v>
       </c>
       <c r="Z82" s="5">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="AA82" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB82" s="6">
         <v>300</v>
@@ -8889,10 +8862,10 @@
         <v>240</v>
       </c>
       <c r="AD82" s="5">
-        <v>0</v>
+        <v>2201.25</v>
       </c>
       <c r="AE82" s="5">
-        <v>0</v>
+        <v>1776</v>
       </c>
       <c r="AF82" s="6">
         <v>1761</v>
@@ -8901,10 +8874,10 @@
         <v>1420.8</v>
       </c>
       <c r="AH82" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AI82" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AJ82" s="6">
         <v>600</v>
@@ -8913,10 +8886,10 @@
         <v>600</v>
       </c>
       <c r="AL82" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="AM82" s="5">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="AN82" s="6">
         <v>900</v>
@@ -8925,10 +8898,10 @@
         <v>900</v>
       </c>
       <c r="AP82" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AQ82" s="5">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AR82" s="6">
         <v>400</v>
@@ -8941,10 +8914,10 @@
       <c r="AV82" s="6"/>
       <c r="AW82" s="6"/>
       <c r="AX82" s="5">
-        <v>0</v>
+        <v>11223.75</v>
       </c>
       <c r="AY82" s="5">
-        <v>0</v>
+        <v>10451.125</v>
       </c>
       <c r="AZ82" s="6">
         <v>8979</v>
@@ -9076,10 +9049,10 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="G85" s="5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="H85" s="6">
         <v>364.8</v>
@@ -9092,10 +9065,10 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="5">
-        <v>0</v>
+        <v>534.375</v>
       </c>
       <c r="O85" s="5">
-        <v>0</v>
+        <v>427.5</v>
       </c>
       <c r="P85" s="6">
         <v>427.5</v>
@@ -9108,10 +9081,10 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="5">
-        <v>0</v>
+        <v>1068.75</v>
       </c>
       <c r="W85" s="5">
-        <v>0</v>
+        <v>1033.125</v>
       </c>
       <c r="X85" s="6">
         <v>855</v>
@@ -9120,10 +9093,10 @@
         <v>826.5</v>
       </c>
       <c r="Z85" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="AA85" s="5">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AB85" s="6">
         <v>570</v>
@@ -9140,10 +9113,10 @@
       <c r="AJ85" s="6"/>
       <c r="AK85" s="6"/>
       <c r="AL85" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="AM85" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="AN85" s="6">
         <v>570</v>
@@ -9160,10 +9133,10 @@
       <c r="AV85" s="6"/>
       <c r="AW85" s="6"/>
       <c r="AX85" s="5">
-        <v>0</v>
+        <v>3484.125</v>
       </c>
       <c r="AY85" s="5">
-        <v>0</v>
+        <v>3199.125</v>
       </c>
       <c r="AZ85" s="6">
         <v>2787.3</v>
@@ -9234,10 +9207,10 @@
         <v>80</v>
       </c>
       <c r="B87" s="5">
-        <v>0</v>
+        <v>1723.75</v>
       </c>
       <c r="C87" s="5">
-        <v>0</v>
+        <v>1723.75</v>
       </c>
       <c r="D87" s="6">
         <v>1379</v>
@@ -9246,10 +9219,10 @@
         <v>1379</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="G87" s="5">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="H87" s="6">
         <v>1576</v>
@@ -9270,10 +9243,10 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="5">
-        <v>0</v>
+        <v>1232.5</v>
       </c>
       <c r="W87" s="5">
-        <v>0</v>
+        <v>1170.875</v>
       </c>
       <c r="X87" s="6">
         <v>986</v>
@@ -9282,10 +9255,10 @@
         <v>936.7</v>
       </c>
       <c r="Z87" s="5">
-        <v>0</v>
+        <v>4930</v>
       </c>
       <c r="AA87" s="5">
-        <v>0</v>
+        <v>4190.5</v>
       </c>
       <c r="AB87" s="6">
         <v>3944</v>
@@ -9302,10 +9275,10 @@
       <c r="AJ87" s="6"/>
       <c r="AK87" s="6"/>
       <c r="AL87" s="5">
-        <v>0</v>
+        <v>2465</v>
       </c>
       <c r="AM87" s="5">
-        <v>0</v>
+        <v>2387.9688000000001</v>
       </c>
       <c r="AN87" s="6">
         <v>1972</v>
@@ -9322,10 +9295,10 @@
       <c r="AV87" s="6"/>
       <c r="AW87" s="6"/>
       <c r="AX87" s="5">
-        <v>0</v>
+        <v>12321.25</v>
       </c>
       <c r="AY87" s="5">
-        <v>0</v>
+        <v>11443.093800000001</v>
       </c>
       <c r="AZ87" s="6">
         <v>9857</v>
@@ -9459,10 +9432,10 @@
         <v>138</v>
       </c>
       <c r="D90" s="6">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E90" s="6">
-        <v>0</v>
+        <v>110.4</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -9479,10 +9452,10 @@
         <v>383.5</v>
       </c>
       <c r="P90" s="6">
-        <v>0</v>
+        <v>311.60000000000002</v>
       </c>
       <c r="Q90" s="6">
-        <v>0</v>
+        <v>306.8</v>
       </c>
       <c r="R90" s="5"/>
       <c r="S90" s="5"/>
@@ -9503,10 +9476,10 @@
         <v>68.5</v>
       </c>
       <c r="AF90" s="6">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="AG90" s="6">
-        <v>0</v>
+        <v>54.8</v>
       </c>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
@@ -9527,10 +9500,10 @@
         <v>306</v>
       </c>
       <c r="AV90" s="6">
-        <v>0</v>
+        <v>244.8</v>
       </c>
       <c r="AW90" s="6">
-        <v>0</v>
+        <v>244.8</v>
       </c>
       <c r="AX90" s="5">
         <v>925</v>
@@ -9539,10 +9512,10 @@
         <v>896</v>
       </c>
       <c r="AZ90" s="6">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="BA90" s="6">
-        <v>0</v>
+        <v>716.80000000000007</v>
       </c>
     </row>
     <row r="91" spans="1:53" x14ac:dyDescent="0.3">
@@ -9674,10 +9647,10 @@
         <v>880</v>
       </c>
       <c r="H93" s="6">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="I93" s="6">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="J93" s="5">
         <v>3728</v>
@@ -9686,10 +9659,10 @@
         <v>3728</v>
       </c>
       <c r="L93" s="6">
-        <v>0</v>
+        <v>2982.4</v>
       </c>
       <c r="M93" s="6">
-        <v>0</v>
+        <v>2982.4</v>
       </c>
       <c r="N93" s="5">
         <v>1240</v>
@@ -9698,10 +9671,10 @@
         <v>1240</v>
       </c>
       <c r="P93" s="6">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="Q93" s="6">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
@@ -9718,10 +9691,10 @@
         <v>850</v>
       </c>
       <c r="AB93" s="6">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="AC93" s="6">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="AD93" s="5">
         <v>5350</v>
@@ -9730,10 +9703,10 @@
         <v>5176</v>
       </c>
       <c r="AF93" s="6">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="AG93" s="6">
-        <v>0</v>
+        <v>4140.8</v>
       </c>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
@@ -9750,10 +9723,10 @@
         <v>2140</v>
       </c>
       <c r="AR93" s="6">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="AS93" s="6">
-        <v>0</v>
+        <v>1712</v>
       </c>
       <c r="AT93" s="5">
         <v>1044</v>
@@ -9762,10 +9735,10 @@
         <v>1044</v>
       </c>
       <c r="AV93" s="6">
-        <v>0</v>
+        <v>835.2</v>
       </c>
       <c r="AW93" s="6">
-        <v>0</v>
+        <v>835.2</v>
       </c>
       <c r="AX93" s="5">
         <v>15232</v>
@@ -9774,10 +9747,10 @@
         <v>15058</v>
       </c>
       <c r="AZ93" s="6">
-        <v>0</v>
+        <v>12185.6</v>
       </c>
       <c r="BA93" s="6">
-        <v>0</v>
+        <v>12046.400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:53" x14ac:dyDescent="0.3">
@@ -9909,10 +9882,10 @@
         <v>140</v>
       </c>
       <c r="H96" s="6">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I96" s="6">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
@@ -9925,10 +9898,10 @@
         <v>278</v>
       </c>
       <c r="P96" s="6">
-        <v>0</v>
+        <v>222.4</v>
       </c>
       <c r="Q96" s="6">
-        <v>0</v>
+        <v>222.4</v>
       </c>
       <c r="R96" s="5">
         <v>563.20000000000005</v>
@@ -9937,10 +9910,10 @@
         <v>563.20000000000005</v>
       </c>
       <c r="T96" s="6">
-        <v>0</v>
+        <v>450.56</v>
       </c>
       <c r="U96" s="6">
-        <v>0</v>
+        <v>450.56</v>
       </c>
       <c r="V96" s="5">
         <v>768</v>
@@ -9949,10 +9922,10 @@
         <v>653</v>
       </c>
       <c r="X96" s="6">
-        <v>0</v>
+        <v>614.4</v>
       </c>
       <c r="Y96" s="6">
-        <v>0</v>
+        <v>522.4</v>
       </c>
       <c r="Z96" s="5">
         <v>2713</v>
@@ -9961,10 +9934,10 @@
         <v>2713</v>
       </c>
       <c r="AB96" s="6">
-        <v>0</v>
+        <v>2170.4</v>
       </c>
       <c r="AC96" s="6">
-        <v>0</v>
+        <v>2170.4</v>
       </c>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
@@ -9981,10 +9954,10 @@
         <v>348</v>
       </c>
       <c r="AN96" s="6">
-        <v>0</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="AO96" s="6">
-        <v>0</v>
+        <v>278.39999999999998</v>
       </c>
       <c r="AP96" s="5">
         <v>1538</v>
@@ -9993,10 +9966,10 @@
         <v>1538</v>
       </c>
       <c r="AR96" s="6">
-        <v>0</v>
+        <v>1230.4000000000001</v>
       </c>
       <c r="AS96" s="6">
-        <v>0</v>
+        <v>1230.4000000000001</v>
       </c>
       <c r="AT96" s="5">
         <v>625</v>
@@ -10005,10 +9978,10 @@
         <v>625</v>
       </c>
       <c r="AV96" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AW96" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AX96" s="5">
         <v>6973.2</v>
@@ -10017,10 +9990,10 @@
         <v>6858.2</v>
       </c>
       <c r="AZ96" s="6">
-        <v>0</v>
+        <v>5578.5599999999995</v>
       </c>
       <c r="BA96" s="6">
-        <v>0</v>
+        <v>5486.5599999999995</v>
       </c>
     </row>
     <row r="97" spans="1:53" x14ac:dyDescent="0.3">
@@ -10148,10 +10121,10 @@
         <v>1786</v>
       </c>
       <c r="D99" s="6">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="E99" s="6">
-        <v>0</v>
+        <v>1428.8</v>
       </c>
       <c r="F99" s="5">
         <v>2888</v>
@@ -10160,10 +10133,10 @@
         <v>2888</v>
       </c>
       <c r="H99" s="6">
-        <v>0</v>
+        <v>2310.4</v>
       </c>
       <c r="I99" s="6">
-        <v>0</v>
+        <v>2310.4</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -10176,10 +10149,10 @@
         <v>1710</v>
       </c>
       <c r="P99" s="6">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="Q99" s="6">
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="R99" s="5">
         <v>2280</v>
@@ -10188,10 +10161,10 @@
         <v>2166</v>
       </c>
       <c r="T99" s="6">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="U99" s="6">
-        <v>0</v>
+        <v>1732.8</v>
       </c>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
@@ -10204,10 +10177,10 @@
         <v>2166</v>
       </c>
       <c r="AB99" s="6">
-        <v>0</v>
+        <v>1824</v>
       </c>
       <c r="AC99" s="6">
-        <v>0</v>
+        <v>1732.8</v>
       </c>
       <c r="AD99" s="5">
         <v>532</v>
@@ -10216,10 +10189,10 @@
         <v>532</v>
       </c>
       <c r="AF99" s="6">
-        <v>0</v>
+        <v>425.6</v>
       </c>
       <c r="AG99" s="6">
-        <v>0</v>
+        <v>425.6</v>
       </c>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
@@ -10232,10 +10205,10 @@
         <v>646</v>
       </c>
       <c r="AN99" s="6">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="AO99" s="6">
-        <v>0</v>
+        <v>516.79999999999995</v>
       </c>
       <c r="AP99" s="5">
         <v>1862</v>
@@ -10244,10 +10217,10 @@
         <v>1824</v>
       </c>
       <c r="AR99" s="6">
-        <v>0</v>
+        <v>1489.6</v>
       </c>
       <c r="AS99" s="6">
-        <v>0</v>
+        <v>1459.2</v>
       </c>
       <c r="AT99" s="5">
         <v>456</v>
@@ -10256,10 +10229,10 @@
         <v>388</v>
       </c>
       <c r="AV99" s="6">
-        <v>0</v>
+        <v>364.8</v>
       </c>
       <c r="AW99" s="6">
-        <v>0</v>
+        <v>310.39999999999998</v>
       </c>
       <c r="AX99" s="5">
         <v>15048</v>
@@ -10268,10 +10241,10 @@
         <v>14106</v>
       </c>
       <c r="AZ99" s="6">
-        <v>0</v>
+        <v>12038.4</v>
       </c>
       <c r="BA99" s="6">
-        <v>0</v>
+        <v>11284.8</v>
       </c>
     </row>
     <row r="100" spans="1:53" x14ac:dyDescent="0.3">
@@ -10407,10 +10380,10 @@
         <v>6324</v>
       </c>
       <c r="L102" s="6">
-        <v>0</v>
+        <v>5059.2</v>
       </c>
       <c r="M102" s="6">
-        <v>0</v>
+        <v>5059.2</v>
       </c>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -10427,10 +10400,10 @@
         <v>949</v>
       </c>
       <c r="X102" s="6">
-        <v>0</v>
+        <v>843.2</v>
       </c>
       <c r="Y102" s="6">
-        <v>0</v>
+        <v>759.2</v>
       </c>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
@@ -10443,10 +10416,10 @@
         <v>3754.5</v>
       </c>
       <c r="AF102" s="6">
-        <v>0</v>
+        <v>3162</v>
       </c>
       <c r="AG102" s="6">
-        <v>0</v>
+        <v>3003.6</v>
       </c>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
@@ -10459,10 +10432,10 @@
         <v>2635</v>
       </c>
       <c r="AN102" s="6">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="AO102" s="6">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="AP102" s="5"/>
       <c r="AQ102" s="5"/>
@@ -10479,10 +10452,10 @@
         <v>13662.5</v>
       </c>
       <c r="AZ102" s="6">
-        <v>0</v>
+        <v>11172.4</v>
       </c>
       <c r="BA102" s="6">
-        <v>0</v>
+        <v>10930</v>
       </c>
     </row>
     <row r="103" spans="1:53" x14ac:dyDescent="0.3">
@@ -10604,10 +10577,10 @@
         <v>81</v>
       </c>
       <c r="B105" s="5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C105" s="5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D105" s="6">
         <v>112</v>
@@ -10640,10 +10613,10 @@
       <c r="AB105" s="6"/>
       <c r="AC105" s="6"/>
       <c r="AD105" s="5">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="AE105" s="5">
-        <v>0</v>
+        <v>239.75</v>
       </c>
       <c r="AF105" s="6">
         <v>196</v>
@@ -10656,10 +10629,10 @@
       <c r="AJ105" s="6"/>
       <c r="AK105" s="6"/>
       <c r="AL105" s="5">
-        <v>0</v>
+        <v>131.25</v>
       </c>
       <c r="AM105" s="5">
-        <v>0</v>
+        <v>124.6875</v>
       </c>
       <c r="AN105" s="6">
         <v>105</v>
@@ -10668,10 +10641,10 @@
         <v>99.75</v>
       </c>
       <c r="AP105" s="5">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AQ105" s="5">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="AR105" s="6">
         <v>420</v>
@@ -10684,10 +10657,10 @@
       <c r="AV105" s="6"/>
       <c r="AW105" s="6"/>
       <c r="AX105" s="5">
-        <v>0</v>
+        <v>1041.25</v>
       </c>
       <c r="AY105" s="5">
-        <v>0</v>
+        <v>1029.4375</v>
       </c>
       <c r="AZ105" s="6">
         <v>833</v>
@@ -10770,10 +10743,10 @@
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="5">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="O107" s="5">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="P107" s="6">
         <v>164</v>
@@ -10798,10 +10771,10 @@
       <c r="AF107" s="6"/>
       <c r="AG107" s="6"/>
       <c r="AH107" s="5">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AI107" s="5">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AJ107" s="6">
         <v>328</v>
@@ -10818,10 +10791,10 @@
       <c r="AR107" s="6"/>
       <c r="AS107" s="6"/>
       <c r="AT107" s="5">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AU107" s="5">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="AV107" s="6">
         <v>98.4</v>
@@ -10830,10 +10803,10 @@
         <v>93.48</v>
       </c>
       <c r="AX107" s="5">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="AY107" s="5">
-        <v>0</v>
+        <v>731.85</v>
       </c>
       <c r="AZ107" s="6">
         <v>590.4</v>
@@ -10924,10 +10897,10 @@
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
       <c r="V109" s="5">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="W109" s="5">
-        <v>0</v>
+        <v>2703</v>
       </c>
       <c r="X109" s="6">
         <v>2544</v>
@@ -10936,10 +10909,10 @@
         <v>2162.4</v>
       </c>
       <c r="Z109" s="5">
-        <v>0</v>
+        <v>993.75</v>
       </c>
       <c r="AA109" s="5">
-        <v>0</v>
+        <v>993.75</v>
       </c>
       <c r="AB109" s="6">
         <v>795</v>
@@ -10956,10 +10929,10 @@
       <c r="AJ109" s="6"/>
       <c r="AK109" s="6"/>
       <c r="AL109" s="5">
-        <v>0</v>
+        <v>3842.5</v>
       </c>
       <c r="AM109" s="5">
-        <v>0</v>
+        <v>3345.625</v>
       </c>
       <c r="AN109" s="6">
         <v>3074</v>
@@ -10968,10 +10941,10 @@
         <v>2676.5</v>
       </c>
       <c r="AP109" s="5">
-        <v>0</v>
+        <v>1987.5</v>
       </c>
       <c r="AQ109" s="5">
-        <v>0</v>
+        <v>1888.125</v>
       </c>
       <c r="AR109" s="6">
         <v>1590</v>
@@ -10984,10 +10957,10 @@
       <c r="AV109" s="6"/>
       <c r="AW109" s="6"/>
       <c r="AX109" s="5">
-        <v>0</v>
+        <v>10003.75</v>
       </c>
       <c r="AY109" s="5">
-        <v>0</v>
+        <v>8930.5</v>
       </c>
       <c r="AZ109" s="6">
         <v>8003</v>
@@ -11121,10 +11094,10 @@
         <v>270</v>
       </c>
       <c r="D112" s="6">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E112" s="6">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="F112" s="5">
         <v>96</v>
@@ -11133,10 +11106,10 @@
         <v>86</v>
       </c>
       <c r="H112" s="6">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I112" s="6">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="J112" s="5">
         <v>144</v>
@@ -11145,10 +11118,10 @@
         <v>144</v>
       </c>
       <c r="L112" s="6">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="M112" s="6">
-        <v>0</v>
+        <v>115.2</v>
       </c>
       <c r="N112" s="5">
         <v>90</v>
@@ -11157,10 +11130,10 @@
         <v>90</v>
       </c>
       <c r="P112" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="Q112" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R112" s="5"/>
       <c r="S112" s="5"/>
@@ -11177,10 +11150,10 @@
         <v>338</v>
       </c>
       <c r="AB112" s="6">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AC112" s="6">
-        <v>0</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="AD112" s="5">
         <v>225</v>
@@ -11189,10 +11162,10 @@
         <v>214</v>
       </c>
       <c r="AF112" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AG112" s="6">
-        <v>0</v>
+        <v>171.2</v>
       </c>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
@@ -11205,10 +11178,10 @@
         <v>525</v>
       </c>
       <c r="AN112" s="6">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AO112" s="6">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AP112" s="5"/>
       <c r="AQ112" s="5"/>
@@ -11225,10 +11198,10 @@
         <v>1667</v>
       </c>
       <c r="AZ112" s="6">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="BA112" s="6">
-        <v>0</v>
+        <v>1333.6</v>
       </c>
     </row>
     <row r="113" spans="1:53" x14ac:dyDescent="0.3">
@@ -11339,10 +11312,10 @@
         <v>842.6</v>
       </c>
       <c r="AR114" s="6">
-        <v>0</v>
+        <v>842.88</v>
       </c>
       <c r="AS114" s="6">
-        <v>0</v>
+        <v>674.08</v>
       </c>
       <c r="AT114" s="5"/>
       <c r="AU114" s="5"/>
@@ -11355,10 +11328,10 @@
         <v>842.6</v>
       </c>
       <c r="AZ114" s="6">
-        <v>0</v>
+        <v>842.88</v>
       </c>
       <c r="BA114" s="6">
-        <v>0</v>
+        <v>674.08</v>
       </c>
     </row>
     <row r="115" spans="1:53" x14ac:dyDescent="0.3">
@@ -11457,10 +11430,10 @@
         <v>719.9</v>
       </c>
       <c r="AF116" s="6">
-        <v>0</v>
+        <v>596.72</v>
       </c>
       <c r="AG116" s="6">
-        <v>0</v>
+        <v>575.91999999999996</v>
       </c>
       <c r="AH116" s="5"/>
       <c r="AI116" s="5"/>
@@ -11473,10 +11446,10 @@
         <v>52.35</v>
       </c>
       <c r="AN116" s="6">
-        <v>0</v>
+        <v>41.88</v>
       </c>
       <c r="AO116" s="6">
-        <v>0</v>
+        <v>41.88</v>
       </c>
       <c r="AP116" s="5"/>
       <c r="AQ116" s="5"/>
@@ -11489,10 +11462,10 @@
         <v>413.5</v>
       </c>
       <c r="AV116" s="6">
-        <v>0</v>
+        <v>389.2</v>
       </c>
       <c r="AW116" s="6">
-        <v>0</v>
+        <v>330.8</v>
       </c>
       <c r="AX116" s="5">
         <v>1284.75</v>
@@ -11501,10 +11474,10 @@
         <v>1185.75</v>
       </c>
       <c r="AZ116" s="6">
-        <v>0</v>
+        <v>1027.8000000000002</v>
       </c>
       <c r="BA116" s="6">
-        <v>0</v>
+        <v>948.6</v>
       </c>
     </row>
     <row r="117" spans="1:53" x14ac:dyDescent="0.3">
@@ -11579,10 +11552,10 @@
         <v>62.4</v>
       </c>
       <c r="H118" s="6">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="I118" s="6">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
@@ -11607,10 +11580,10 @@
         <v>780</v>
       </c>
       <c r="AB118" s="6">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="AC118" s="6">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
@@ -11639,10 +11612,10 @@
         <v>842.4</v>
       </c>
       <c r="AZ118" s="6">
-        <v>0</v>
+        <v>673.92</v>
       </c>
       <c r="BA118" s="6">
-        <v>0</v>
+        <v>673.92</v>
       </c>
     </row>
     <row r="119" spans="1:53" x14ac:dyDescent="0.3">
@@ -11737,10 +11710,10 @@
         <v>225</v>
       </c>
       <c r="AB120" s="6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC120" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
@@ -11761,10 +11734,10 @@
         <v>1050.5</v>
       </c>
       <c r="AR120" s="6">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="AS120" s="6">
-        <v>0</v>
+        <v>840.4</v>
       </c>
       <c r="AT120" s="5">
         <v>750</v>
@@ -11773,10 +11746,10 @@
         <v>562</v>
       </c>
       <c r="AV120" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AW120" s="6">
-        <v>0</v>
+        <v>449.6</v>
       </c>
       <c r="AX120" s="5">
         <v>2312.5</v>
@@ -11785,10 +11758,10 @@
         <v>1837.5</v>
       </c>
       <c r="AZ120" s="6">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="BA120" s="6">
-        <v>0</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="121" spans="1:53" x14ac:dyDescent="0.3">
@@ -11914,10 +11887,10 @@
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="5">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="G123" s="5">
-        <v>0</v>
+        <v>1572</v>
       </c>
       <c r="H123" s="6">
         <v>1257.5999999999999</v>
@@ -11930,10 +11903,10 @@
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O123" s="5">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="P123" s="6">
         <v>720</v>
@@ -11946,10 +11919,10 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="W123" s="5">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="X123" s="6">
         <v>144</v>
@@ -11958,10 +11931,10 @@
         <v>122.4</v>
       </c>
       <c r="Z123" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AA123" s="5">
-        <v>0</v>
+        <v>815.625</v>
       </c>
       <c r="AB123" s="6">
         <v>720</v>
@@ -11970,10 +11943,10 @@
         <v>652.5</v>
       </c>
       <c r="AD123" s="5">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AE123" s="5">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="AF123" s="6">
         <v>54</v>
@@ -11986,10 +11959,10 @@
       <c r="AJ123" s="6"/>
       <c r="AK123" s="6"/>
       <c r="AL123" s="5">
-        <v>0</v>
+        <v>1425</v>
       </c>
       <c r="AM123" s="5">
-        <v>0</v>
+        <v>1306.25</v>
       </c>
       <c r="AN123" s="6">
         <v>1140</v>
@@ -12006,10 +11979,10 @@
       <c r="AV123" s="6"/>
       <c r="AW123" s="6"/>
       <c r="AX123" s="5">
-        <v>0</v>
+        <v>5044.5</v>
       </c>
       <c r="AY123" s="5">
-        <v>0</v>
+        <v>4634.375</v>
       </c>
       <c r="AZ123" s="6">
         <v>4035.6</v>
@@ -12100,10 +12073,10 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="W125" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="X125" s="6">
         <v>600</v>
@@ -12132,10 +12105,10 @@
       <c r="AR125" s="6"/>
       <c r="AS125" s="6"/>
       <c r="AT125" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AU125" s="5">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AV125" s="6">
         <v>60</v>
@@ -12144,10 +12117,10 @@
         <v>60</v>
       </c>
       <c r="AX125" s="5">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="AY125" s="5">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="AZ125" s="6">
         <v>660</v>
@@ -12279,10 +12252,10 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="5">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="G128" s="5">
-        <v>0</v>
+        <v>1281.125</v>
       </c>
       <c r="H128" s="6">
         <v>1132</v>
@@ -12315,10 +12288,10 @@
       <c r="AF128" s="6"/>
       <c r="AG128" s="6"/>
       <c r="AH128" s="5">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AI128" s="5">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="AJ128" s="6">
         <v>380</v>
@@ -12327,10 +12300,10 @@
         <v>380</v>
       </c>
       <c r="AL128" s="5">
-        <v>0</v>
+        <v>356.25</v>
       </c>
       <c r="AM128" s="5">
-        <v>0</v>
+        <v>356.25</v>
       </c>
       <c r="AN128" s="6">
         <v>285</v>
@@ -12339,10 +12312,10 @@
         <v>285</v>
       </c>
       <c r="AP128" s="5">
-        <v>0</v>
+        <v>356.25</v>
       </c>
       <c r="AQ128" s="5">
-        <v>0</v>
+        <v>267.1875</v>
       </c>
       <c r="AR128" s="6">
         <v>285</v>
@@ -12351,10 +12324,10 @@
         <v>213.75</v>
       </c>
       <c r="AT128" s="5">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="AU128" s="5">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="AV128" s="6">
         <v>114</v>
@@ -12363,10 +12336,10 @@
         <v>114</v>
       </c>
       <c r="AX128" s="5">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="AY128" s="5">
-        <v>0</v>
+        <v>2522.0625</v>
       </c>
       <c r="AZ128" s="6">
         <v>2196</v>
@@ -12502,10 +12475,10 @@
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="5">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="K131" s="5">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="L131" s="6">
         <v>552</v>
@@ -12522,10 +12495,10 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="5">
-        <v>0</v>
+        <v>1437.5</v>
       </c>
       <c r="W131" s="5">
-        <v>0</v>
+        <v>1437.5</v>
       </c>
       <c r="X131" s="6">
         <v>1150</v>
@@ -12558,10 +12531,10 @@
       <c r="AV131" s="6"/>
       <c r="AW131" s="6"/>
       <c r="AX131" s="5">
-        <v>0</v>
+        <v>2127.5</v>
       </c>
       <c r="AY131" s="5">
-        <v>0</v>
+        <v>2127.5</v>
       </c>
       <c r="AZ131" s="6">
         <v>1702</v>
@@ -12672,10 +12645,10 @@
       <c r="AN133" s="6"/>
       <c r="AO133" s="6"/>
       <c r="AP133" s="5">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="AQ133" s="5">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="AR133" s="6">
         <v>311.2</v>
@@ -12684,10 +12657,10 @@
         <v>311.2</v>
       </c>
       <c r="AT133" s="5">
-        <v>0</v>
+        <v>1215.625</v>
       </c>
       <c r="AU133" s="5">
-        <v>0</v>
+        <v>1154.8438000000001</v>
       </c>
       <c r="AV133" s="6">
         <v>972.5</v>
@@ -12696,10 +12669,10 @@
         <v>923.875</v>
       </c>
       <c r="AX133" s="5">
-        <v>0</v>
+        <v>1604.625</v>
       </c>
       <c r="AY133" s="5">
-        <v>0</v>
+        <v>1543.8438000000001</v>
       </c>
       <c r="AZ133" s="6">
         <v>1283.7</v>
@@ -12833,10 +12806,10 @@
         <v>864</v>
       </c>
       <c r="D136" s="6">
-        <v>0</v>
+        <v>921.6</v>
       </c>
       <c r="E136" s="6">
-        <v>0</v>
+        <v>691.2</v>
       </c>
       <c r="F136" s="5">
         <v>236</v>
@@ -12845,10 +12818,10 @@
         <v>236</v>
       </c>
       <c r="H136" s="6">
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="I136" s="6">
-        <v>0</v>
+        <v>188.8</v>
       </c>
       <c r="J136" s="5">
         <v>180</v>
@@ -12857,10 +12830,10 @@
         <v>143</v>
       </c>
       <c r="L136" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="M136" s="6">
-        <v>0</v>
+        <v>114.4</v>
       </c>
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
@@ -12873,10 +12846,10 @@
         <v>380</v>
       </c>
       <c r="T136" s="6">
-        <v>0</v>
+        <v>357.6</v>
       </c>
       <c r="U136" s="6">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="V136" s="5"/>
       <c r="W136" s="5"/>
@@ -12901,10 +12874,10 @@
         <v>105.2</v>
       </c>
       <c r="AN136" s="6">
-        <v>0</v>
+        <v>95.36</v>
       </c>
       <c r="AO136" s="6">
-        <v>0</v>
+        <v>84.16</v>
       </c>
       <c r="AP136" s="5"/>
       <c r="AQ136" s="5"/>
@@ -12917,10 +12890,10 @@
         <v>224</v>
       </c>
       <c r="AV136" s="6">
-        <v>0</v>
+        <v>238.4</v>
       </c>
       <c r="AW136" s="6">
-        <v>0</v>
+        <v>179.2</v>
       </c>
       <c r="AX136" s="5">
         <v>2432.1999999999998</v>
@@ -12929,10 +12902,10 @@
         <v>1952.2</v>
       </c>
       <c r="AZ136" s="6">
-        <v>0</v>
+        <v>1945.76</v>
       </c>
       <c r="BA136" s="6">
-        <v>0</v>
+        <v>1561.7600000000002</v>
       </c>
     </row>
     <row r="137" spans="1:53" x14ac:dyDescent="0.3">
@@ -13058,10 +13031,10 @@
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G139" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H139" s="6">
         <v>120</v>
@@ -13098,10 +13071,10 @@
       <c r="AJ139" s="6"/>
       <c r="AK139" s="6"/>
       <c r="AL139" s="5">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="AM139" s="5">
-        <v>0</v>
+        <v>140.625</v>
       </c>
       <c r="AN139" s="6">
         <v>150</v>
@@ -13110,10 +13083,10 @@
         <v>112.5</v>
       </c>
       <c r="AP139" s="5">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AQ139" s="5">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="AR139" s="6">
         <v>50</v>
@@ -13126,10 +13099,10 @@
       <c r="AV139" s="6"/>
       <c r="AW139" s="6"/>
       <c r="AX139" s="5">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AY139" s="5">
-        <v>0</v>
+        <v>353.125</v>
       </c>
       <c r="AZ139" s="6">
         <v>320</v>
@@ -13200,10 +13173,10 @@
         <v>82</v>
       </c>
       <c r="B141" s="5">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="C141" s="5">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="D141" s="6">
         <v>347.2</v>
@@ -13224,10 +13197,10 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="S141" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="T141" s="6">
         <v>155</v>
@@ -13240,10 +13213,10 @@
       <c r="X141" s="6"/>
       <c r="Y141" s="6"/>
       <c r="Z141" s="5">
-        <v>0</v>
+        <v>697.5</v>
       </c>
       <c r="AA141" s="5">
-        <v>0</v>
+        <v>523.125</v>
       </c>
       <c r="AB141" s="6">
         <v>558</v>
@@ -13252,10 +13225,10 @@
         <v>418.5</v>
       </c>
       <c r="AD141" s="5">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="AE141" s="5">
-        <v>0</v>
+        <v>387.5</v>
       </c>
       <c r="AF141" s="6">
         <v>310</v>
@@ -13276,10 +13249,10 @@
       <c r="AR141" s="6"/>
       <c r="AS141" s="6"/>
       <c r="AT141" s="5">
-        <v>0</v>
+        <v>1511.25</v>
       </c>
       <c r="AU141" s="5">
-        <v>0</v>
+        <v>1441.5</v>
       </c>
       <c r="AV141" s="6">
         <v>1209</v>
@@ -13288,10 +13261,10 @@
         <v>1153.2</v>
       </c>
       <c r="AX141" s="5">
-        <v>0</v>
+        <v>3224</v>
       </c>
       <c r="AY141" s="5">
-        <v>0</v>
+        <v>2979.875</v>
       </c>
       <c r="AZ141" s="6">
         <v>2579.1999999999998</v>
@@ -13419,10 +13392,10 @@
         <v>82</v>
       </c>
       <c r="B144" s="5">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="C144" s="5">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="D144" s="6">
         <v>336</v>
@@ -13431,10 +13404,10 @@
         <v>307.2</v>
       </c>
       <c r="F144" s="5">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="G144" s="5">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="H144" s="6">
         <v>211.2</v>
@@ -13455,10 +13428,10 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="5">
-        <v>0</v>
+        <v>1187.5</v>
       </c>
       <c r="W144" s="5">
-        <v>0</v>
+        <v>1009.375</v>
       </c>
       <c r="X144" s="6">
         <v>950</v>
@@ -13475,10 +13448,10 @@
       <c r="AF144" s="6"/>
       <c r="AG144" s="6"/>
       <c r="AH144" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AI144" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="AJ144" s="6">
         <v>720</v>
@@ -13491,10 +13464,10 @@
       <c r="AN144" s="6"/>
       <c r="AO144" s="6"/>
       <c r="AP144" s="5">
-        <v>0</v>
+        <v>522.5</v>
       </c>
       <c r="AQ144" s="5">
-        <v>0</v>
+        <v>451.25</v>
       </c>
       <c r="AR144" s="6">
         <v>418</v>
@@ -13507,10 +13480,10 @@
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="5">
-        <v>0</v>
+        <v>3294</v>
       </c>
       <c r="AY144" s="5">
-        <v>0</v>
+        <v>3002.625</v>
       </c>
       <c r="AZ144" s="6">
         <v>2635.2</v>
@@ -13638,10 +13611,10 @@
         <v>80</v>
       </c>
       <c r="B147" s="5">
-        <v>0</v>
+        <v>2660.625</v>
       </c>
       <c r="C147" s="5">
-        <v>0</v>
+        <v>2660.625</v>
       </c>
       <c r="D147" s="6">
         <v>2128.5</v>
@@ -13658,10 +13631,10 @@
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
       <c r="N147" s="5">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="O147" s="5">
-        <v>0</v>
+        <v>283.5</v>
       </c>
       <c r="P147" s="6">
         <v>252</v>
@@ -13674,10 +13647,10 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="5">
-        <v>0</v>
+        <v>1561.5</v>
       </c>
       <c r="W147" s="5">
-        <v>0</v>
+        <v>1561.5</v>
       </c>
       <c r="X147" s="6">
         <v>1249.2</v>
@@ -13686,10 +13659,10 @@
         <v>1249.2</v>
       </c>
       <c r="Z147" s="5">
-        <v>0</v>
+        <v>1366.3125</v>
       </c>
       <c r="AA147" s="5">
-        <v>0</v>
+        <v>1161.3656000000001</v>
       </c>
       <c r="AB147" s="6">
         <v>1093.05</v>
@@ -13698,10 +13671,10 @@
         <v>929.09249999999997</v>
       </c>
       <c r="AD147" s="5">
-        <v>0</v>
+        <v>195.1875</v>
       </c>
       <c r="AE147" s="5">
-        <v>0</v>
+        <v>185.4281</v>
       </c>
       <c r="AF147" s="6">
         <v>156.15</v>
@@ -13718,10 +13691,10 @@
       <c r="AN147" s="6"/>
       <c r="AO147" s="6"/>
       <c r="AP147" s="5">
-        <v>0</v>
+        <v>1249.2</v>
       </c>
       <c r="AQ147" s="5">
-        <v>0</v>
+        <v>1202.355</v>
       </c>
       <c r="AR147" s="6">
         <v>999.36</v>
@@ -13734,10 +13707,10 @@
       <c r="AV147" s="6"/>
       <c r="AW147" s="6"/>
       <c r="AX147" s="5">
-        <v>0</v>
+        <v>7347.8249999999998</v>
       </c>
       <c r="AY147" s="5">
-        <v>0</v>
+        <v>7054.7736999999997</v>
       </c>
       <c r="AZ147" s="6">
         <v>5878.2599999999993</v>
@@ -13865,10 +13838,10 @@
         <v>78</v>
       </c>
       <c r="B150" s="5">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="C150" s="5">
-        <v>0</v>
+        <v>167.4</v>
       </c>
       <c r="D150" s="6">
         <v>148.80000000000001</v>
@@ -13885,10 +13858,10 @@
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
       <c r="N150" s="5">
-        <v>0</v>
+        <v>484.375</v>
       </c>
       <c r="O150" s="5">
-        <v>0</v>
+        <v>484.375</v>
       </c>
       <c r="P150" s="6">
         <v>387.5</v>
@@ -13897,10 +13870,10 @@
         <v>387.5</v>
       </c>
       <c r="R150" s="5">
-        <v>0</v>
+        <v>339.0625</v>
       </c>
       <c r="S150" s="5">
-        <v>0</v>
+        <v>324.53129999999999</v>
       </c>
       <c r="T150" s="6">
         <v>271.25</v>
@@ -13913,10 +13886,10 @@
       <c r="X150" s="6"/>
       <c r="Y150" s="6"/>
       <c r="Z150" s="5">
-        <v>0</v>
+        <v>19.375</v>
       </c>
       <c r="AA150" s="5">
-        <v>0</v>
+        <v>19.375</v>
       </c>
       <c r="AB150" s="6">
         <v>15.5</v>
@@ -13929,10 +13902,10 @@
       <c r="AF150" s="6"/>
       <c r="AG150" s="6"/>
       <c r="AH150" s="5">
-        <v>0</v>
+        <v>242.1875</v>
       </c>
       <c r="AI150" s="5">
-        <v>0</v>
+        <v>242.1875</v>
       </c>
       <c r="AJ150" s="6">
         <v>193.75</v>
@@ -13945,10 +13918,10 @@
       <c r="AN150" s="6"/>
       <c r="AO150" s="6"/>
       <c r="AP150" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="AQ150" s="5">
-        <v>0</v>
+        <v>193.75</v>
       </c>
       <c r="AR150" s="6">
         <v>155</v>
@@ -13961,10 +13934,10 @@
       <c r="AV150" s="6"/>
       <c r="AW150" s="6"/>
       <c r="AX150" s="5">
-        <v>0</v>
+        <v>1464.75</v>
       </c>
       <c r="AY150" s="5">
-        <v>0</v>
+        <v>1431.6188</v>
       </c>
       <c r="AZ150" s="6">
         <v>1171.8</v>
@@ -14035,10 +14008,10 @@
         <v>83</v>
       </c>
       <c r="B152" s="5">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="C152" s="5">
-        <v>0</v>
+        <v>643.5</v>
       </c>
       <c r="D152" s="6">
         <v>572</v>
@@ -14047,10 +14020,10 @@
         <v>514.79999999999995</v>
       </c>
       <c r="F152" s="5">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G152" s="5">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="H152" s="6">
         <v>364</v>
@@ -14063,10 +14036,10 @@
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
       <c r="N152" s="5">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="O152" s="5">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="P152" s="6">
         <v>260</v>
@@ -14079,10 +14052,10 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="5">
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="W152" s="5">
-        <v>0</v>
+        <v>154.375</v>
       </c>
       <c r="X152" s="6">
         <v>130</v>
@@ -14091,10 +14064,10 @@
         <v>123.5</v>
       </c>
       <c r="Z152" s="5">
-        <v>0</v>
+        <v>568.75</v>
       </c>
       <c r="AA152" s="5">
-        <v>0</v>
+        <v>426.5625</v>
       </c>
       <c r="AB152" s="6">
         <v>455</v>
@@ -14107,10 +14080,10 @@
       <c r="AF152" s="6"/>
       <c r="AG152" s="6"/>
       <c r="AH152" s="5">
-        <v>0</v>
+        <v>1137.5</v>
       </c>
       <c r="AI152" s="5">
-        <v>0</v>
+        <v>1080.625</v>
       </c>
       <c r="AJ152" s="6">
         <v>910</v>
@@ -14131,10 +14104,10 @@
       <c r="AV152" s="6"/>
       <c r="AW152" s="6"/>
       <c r="AX152" s="5">
-        <v>0</v>
+        <v>3363.75</v>
       </c>
       <c r="AY152" s="5">
-        <v>0</v>
+        <v>3085.0625</v>
       </c>
       <c r="AZ152" s="6">
         <v>2691</v>
@@ -14205,10 +14178,10 @@
         <v>81</v>
       </c>
       <c r="B154" s="5">
-        <v>0</v>
+        <v>2161.25</v>
       </c>
       <c r="C154" s="5">
-        <v>0</v>
+        <v>1945.125</v>
       </c>
       <c r="D154" s="6">
         <v>1729</v>
@@ -14217,10 +14190,10 @@
         <v>1556.1</v>
       </c>
       <c r="F154" s="5">
-        <v>0</v>
+        <v>232.75</v>
       </c>
       <c r="G154" s="5">
-        <v>0</v>
+        <v>232.75</v>
       </c>
       <c r="H154" s="6">
         <v>186.2</v>
@@ -14229,10 +14202,10 @@
         <v>186.2</v>
       </c>
       <c r="J154" s="5">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K154" s="5">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="L154" s="6">
         <v>212.8</v>
@@ -14245,10 +14218,10 @@
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="5">
-        <v>0</v>
+        <v>1246.875</v>
       </c>
       <c r="S154" s="5">
-        <v>0</v>
+        <v>1246.875</v>
       </c>
       <c r="T154" s="6">
         <v>997.5</v>
@@ -14261,10 +14234,10 @@
       <c r="X154" s="6"/>
       <c r="Y154" s="6"/>
       <c r="Z154" s="5">
-        <v>0</v>
+        <v>374.0625</v>
       </c>
       <c r="AA154" s="5">
-        <v>0</v>
+        <v>374.0625</v>
       </c>
       <c r="AB154" s="6">
         <v>299.25</v>
@@ -14293,10 +14266,10 @@
       <c r="AV154" s="6"/>
       <c r="AW154" s="6"/>
       <c r="AX154" s="5">
-        <v>0</v>
+        <v>4280.9375</v>
       </c>
       <c r="AY154" s="5">
-        <v>0</v>
+        <v>4064.8125</v>
       </c>
       <c r="AZ154" s="6">
         <v>3424.75</v>
@@ -14391,10 +14364,10 @@
       <c r="X156" s="6"/>
       <c r="Y156" s="6"/>
       <c r="Z156" s="5">
-        <v>0</v>
+        <v>3094.75</v>
       </c>
       <c r="AA156" s="5">
-        <v>0</v>
+        <v>3094.75</v>
       </c>
       <c r="AB156" s="6">
         <v>2475.8000000000002</v>
@@ -14407,10 +14380,10 @@
       <c r="AF156" s="6"/>
       <c r="AG156" s="6"/>
       <c r="AH156" s="5">
-        <v>0</v>
+        <v>7117.9250000000002</v>
       </c>
       <c r="AI156" s="5">
-        <v>0</v>
+        <v>7117.9250000000002</v>
       </c>
       <c r="AJ156" s="6">
         <v>5694.34</v>
@@ -14419,10 +14392,10 @@
         <v>5694.34</v>
       </c>
       <c r="AL156" s="5">
-        <v>0</v>
+        <v>5880.0249999999996</v>
       </c>
       <c r="AM156" s="5">
-        <v>0</v>
+        <v>5106.3374999999996</v>
       </c>
       <c r="AN156" s="6">
         <v>4704.0200000000004</v>
@@ -14435,10 +14408,10 @@
       <c r="AR156" s="6"/>
       <c r="AS156" s="6"/>
       <c r="AT156" s="5">
-        <v>0</v>
+        <v>1856.85</v>
       </c>
       <c r="AU156" s="5">
-        <v>0</v>
+        <v>1764.0074999999999</v>
       </c>
       <c r="AV156" s="6">
         <v>1485.48</v>
@@ -14447,10 +14420,10 @@
         <v>1411.2059999999999</v>
       </c>
       <c r="AX156" s="5">
-        <v>0</v>
+        <v>17949.55</v>
       </c>
       <c r="AY156" s="5">
-        <v>0</v>
+        <v>17083.019999999997</v>
       </c>
       <c r="AZ156" s="6">
         <v>14359.640000000001</v>
@@ -14533,10 +14506,10 @@
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
       <c r="N158" s="5">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="O158" s="5">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="P158" s="6">
         <v>1596</v>
@@ -14573,10 +14546,10 @@
       <c r="AR158" s="6"/>
       <c r="AS158" s="6"/>
       <c r="AT158" s="5">
-        <v>0</v>
+        <v>3420</v>
       </c>
       <c r="AU158" s="5">
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="AV158" s="6">
         <v>2736</v>
@@ -14585,10 +14558,10 @@
         <v>2462.4</v>
       </c>
       <c r="AX158" s="5">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="AY158" s="5">
-        <v>0</v>
+        <v>5073</v>
       </c>
       <c r="AZ158" s="6">
         <v>4332</v>
@@ -14730,10 +14703,10 @@
         <v>223.2</v>
       </c>
       <c r="L161" s="6">
-        <v>0</v>
+        <v>178.56</v>
       </c>
       <c r="M161" s="6">
-        <v>0</v>
+        <v>178.56</v>
       </c>
       <c r="N161" s="5">
         <v>1041.5999999999999</v>
@@ -14742,10 +14715,10 @@
         <v>1041.5999999999999</v>
       </c>
       <c r="P161" s="6">
-        <v>0</v>
+        <v>833.28</v>
       </c>
       <c r="Q161" s="6">
-        <v>0</v>
+        <v>833.28</v>
       </c>
       <c r="R161" s="5"/>
       <c r="S161" s="5"/>
@@ -14758,10 +14731,10 @@
         <v>536</v>
       </c>
       <c r="X161" s="6">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="Y161" s="6">
-        <v>0</v>
+        <v>428.8</v>
       </c>
       <c r="Z161" s="5">
         <v>84</v>
@@ -14770,10 +14743,10 @@
         <v>84</v>
       </c>
       <c r="AB161" s="6">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="AC161" s="6">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="AD161" s="5">
         <v>1008</v>
@@ -14782,10 +14755,10 @@
         <v>1008</v>
       </c>
       <c r="AF161" s="6">
-        <v>0</v>
+        <v>806.4</v>
       </c>
       <c r="AG161" s="6">
-        <v>0</v>
+        <v>806.4</v>
       </c>
       <c r="AH161" s="5"/>
       <c r="AI161" s="5"/>
@@ -14802,10 +14775,10 @@
         <v>396</v>
       </c>
       <c r="AR161" s="6">
-        <v>0</v>
+        <v>316.8</v>
       </c>
       <c r="AS161" s="6">
-        <v>0</v>
+        <v>316.8</v>
       </c>
       <c r="AT161" s="5"/>
       <c r="AU161" s="5"/>
@@ -14818,10 +14791,10 @@
         <v>3288.8</v>
       </c>
       <c r="AZ161" s="6">
-        <v>0</v>
+        <v>2706.24</v>
       </c>
       <c r="BA161" s="6">
-        <v>0</v>
+        <v>2631.04</v>
       </c>
     </row>
     <row r="162" spans="1:53" x14ac:dyDescent="0.3">
@@ -14973,10 +14946,10 @@
         <v>298.5</v>
       </c>
       <c r="AB164" s="6">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="AC164" s="6">
-        <v>0</v>
+        <v>238.8</v>
       </c>
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
@@ -15005,10 +14978,10 @@
         <v>298.5</v>
       </c>
       <c r="AZ164" s="6">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="BA164" s="6">
-        <v>0</v>
+        <v>238.8</v>
       </c>
     </row>
     <row r="165" spans="1:53" x14ac:dyDescent="0.3">
@@ -15148,10 +15121,10 @@
         <v>251</v>
       </c>
       <c r="P167" s="6">
-        <v>0</v>
+        <v>223.2</v>
       </c>
       <c r="Q167" s="6">
-        <v>0</v>
+        <v>200.8</v>
       </c>
       <c r="R167" s="5">
         <v>550.25</v>
@@ -15160,10 +15133,10 @@
         <v>472.25</v>
       </c>
       <c r="T167" s="6">
-        <v>0</v>
+        <v>440.2</v>
       </c>
       <c r="U167" s="6">
-        <v>0</v>
+        <v>377.79999999999995</v>
       </c>
       <c r="V167" s="5">
         <v>232.5</v>
@@ -15172,10 +15145,10 @@
         <v>232.5</v>
       </c>
       <c r="X167" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Y167" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="Z167" s="5"/>
       <c r="AA167" s="5"/>
@@ -15192,10 +15165,10 @@
         <v>232.5</v>
       </c>
       <c r="AJ167" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AK167" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AL167" s="5">
         <v>403</v>
@@ -15204,10 +15177,10 @@
         <v>338</v>
       </c>
       <c r="AN167" s="6">
-        <v>0</v>
+        <v>322.39999999999998</v>
       </c>
       <c r="AO167" s="6">
-        <v>0</v>
+        <v>270.39999999999998</v>
       </c>
       <c r="AP167" s="5">
         <v>232.5</v>
@@ -15216,10 +15189,10 @@
         <v>186.5</v>
       </c>
       <c r="AR167" s="6">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AS167" s="6">
-        <v>0</v>
+        <v>149.19999999999999</v>
       </c>
       <c r="AT167" s="5">
         <v>325.5</v>
@@ -15228,10 +15201,10 @@
         <v>325.5</v>
       </c>
       <c r="AV167" s="6">
-        <v>0</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="AW167" s="6">
-        <v>0</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="AX167" s="5">
         <v>2255.25</v>
@@ -15240,10 +15213,10 @@
         <v>2038.25</v>
       </c>
       <c r="AZ167" s="6">
-        <v>0</v>
+        <v>1804.2000000000003</v>
       </c>
       <c r="BA167" s="6">
-        <v>0</v>
+        <v>1630.6</v>
       </c>
     </row>
     <row r="168" spans="1:53" x14ac:dyDescent="0.3">
@@ -15314,10 +15287,10 @@
         <v>552</v>
       </c>
       <c r="D169" s="6">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="E169" s="6">
-        <v>0</v>
+        <v>441.6</v>
       </c>
       <c r="F169" s="5">
         <v>104</v>
@@ -15326,10 +15299,10 @@
         <v>88</v>
       </c>
       <c r="H169" s="6">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="I169" s="6">
-        <v>0</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="J169" s="5">
         <v>124.8</v>
@@ -15338,10 +15311,10 @@
         <v>113.8</v>
       </c>
       <c r="L169" s="6">
-        <v>0</v>
+        <v>99.84</v>
       </c>
       <c r="M169" s="6">
-        <v>0</v>
+        <v>91.039999999999992</v>
       </c>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
@@ -15374,10 +15347,10 @@
         <v>195</v>
       </c>
       <c r="AN169" s="6">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AO169" s="6">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AP169" s="5"/>
       <c r="AQ169" s="5"/>
@@ -15390,10 +15363,10 @@
         <v>23</v>
       </c>
       <c r="AV169" s="6">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="AW169" s="6">
-        <v>0</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="AX169" s="5">
         <v>1099.8</v>
@@ -15402,10 +15375,10 @@
         <v>971.8</v>
       </c>
       <c r="AZ169" s="6">
-        <v>0</v>
+        <v>879.84</v>
       </c>
       <c r="BA169" s="6">
-        <v>0</v>
+        <v>777.43999999999994</v>
       </c>
     </row>
     <row r="170" spans="1:53" x14ac:dyDescent="0.3">
@@ -15484,10 +15457,10 @@
         <v>798</v>
       </c>
       <c r="L171" s="6">
-        <v>0</v>
+        <v>638.4</v>
       </c>
       <c r="M171" s="6">
-        <v>0</v>
+        <v>638.4</v>
       </c>
       <c r="N171" s="5"/>
       <c r="O171" s="5"/>
@@ -15512,10 +15485,10 @@
         <v>159.6</v>
       </c>
       <c r="AF171" s="6">
-        <v>0</v>
+        <v>127.68</v>
       </c>
       <c r="AG171" s="6">
-        <v>0</v>
+        <v>127.68</v>
       </c>
       <c r="AH171" s="5">
         <v>931</v>
@@ -15524,10 +15497,10 @@
         <v>931</v>
       </c>
       <c r="AJ171" s="6">
-        <v>0</v>
+        <v>744.8</v>
       </c>
       <c r="AK171" s="6">
-        <v>0</v>
+        <v>744.8</v>
       </c>
       <c r="AL171" s="5">
         <v>1163.75</v>
@@ -15536,10 +15509,10 @@
         <v>930.75</v>
       </c>
       <c r="AN171" s="6">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="AO171" s="6">
-        <v>0</v>
+        <v>744.6</v>
       </c>
       <c r="AP171" s="5">
         <v>1396.5</v>
@@ -15548,10 +15521,10 @@
         <v>1336.5</v>
       </c>
       <c r="AR171" s="6">
-        <v>0</v>
+        <v>1117.2</v>
       </c>
       <c r="AS171" s="6">
-        <v>0</v>
+        <v>1069.2</v>
       </c>
       <c r="AT171" s="5"/>
       <c r="AU171" s="5"/>
@@ -15564,10 +15537,10 @@
         <v>4155.8500000000004</v>
       </c>
       <c r="AZ171" s="6">
-        <v>0</v>
+        <v>3559.08</v>
       </c>
       <c r="BA171" s="6">
-        <v>0</v>
+        <v>3324.68</v>
       </c>
     </row>
     <row r="172" spans="1:53" x14ac:dyDescent="0.3">
@@ -15642,10 +15615,10 @@
         <v>2079</v>
       </c>
       <c r="H173" s="6">
-        <v>0</v>
+        <v>1663.2</v>
       </c>
       <c r="I173" s="6">
-        <v>0</v>
+        <v>1663.2</v>
       </c>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -15658,10 +15631,10 @@
         <v>4456.4399999999996</v>
       </c>
       <c r="P173" s="6">
-        <v>0</v>
+        <v>3565.152</v>
       </c>
       <c r="Q173" s="6">
-        <v>0</v>
+        <v>3565.152</v>
       </c>
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
@@ -15702,10 +15675,10 @@
         <v>6535.44</v>
       </c>
       <c r="AZ173" s="6">
-        <v>0</v>
+        <v>5228.3519999999999</v>
       </c>
       <c r="BA173" s="6">
-        <v>0</v>
+        <v>5228.3519999999999</v>
       </c>
     </row>
     <row r="174" spans="1:53" x14ac:dyDescent="0.3">
@@ -15776,10 +15749,10 @@
         <v>546</v>
       </c>
       <c r="D175" s="6">
-        <v>0</v>
+        <v>436.8</v>
       </c>
       <c r="E175" s="6">
-        <v>0</v>
+        <v>436.8</v>
       </c>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
@@ -15820,10 +15793,10 @@
         <v>1094.4000000000001</v>
       </c>
       <c r="AN175" s="6">
-        <v>0</v>
+        <v>875.52</v>
       </c>
       <c r="AO175" s="6">
-        <v>0</v>
+        <v>875.52</v>
       </c>
       <c r="AP175" s="5"/>
       <c r="AQ175" s="5"/>
@@ -15840,10 +15813,10 @@
         <v>1640.4</v>
       </c>
       <c r="AZ175" s="6">
-        <v>0</v>
+        <v>1312.32</v>
       </c>
       <c r="BA175" s="6">
-        <v>0</v>
+        <v>1312.32</v>
       </c>
     </row>
     <row r="176" spans="1:53" x14ac:dyDescent="0.3">
@@ -15983,10 +15956,10 @@
         <v>775</v>
       </c>
       <c r="P178" s="6">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Q178" s="6">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="R178" s="5">
         <v>155</v>
@@ -15995,10 +15968,10 @@
         <v>155</v>
       </c>
       <c r="T178" s="6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="U178" s="6">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="V178" s="5"/>
       <c r="W178" s="5"/>
@@ -16035,10 +16008,10 @@
         <v>930</v>
       </c>
       <c r="AZ178" s="6">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="BA178" s="6">
-        <v>0</v>
+        <v>744</v>
       </c>
     </row>
     <row r="179" spans="1:53" x14ac:dyDescent="0.3">
@@ -16109,10 +16082,10 @@
         <v>557.5</v>
       </c>
       <c r="D180" s="6">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="E180" s="6">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="F180" s="5"/>
       <c r="G180" s="5"/>
@@ -16129,10 +16102,10 @@
         <v>62.75</v>
       </c>
       <c r="P180" s="6">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="Q180" s="6">
-        <v>0</v>
+        <v>50.2</v>
       </c>
       <c r="R180" s="5"/>
       <c r="S180" s="5"/>
@@ -16149,10 +16122,10 @@
         <v>69.75</v>
       </c>
       <c r="AB180" s="6">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="AC180" s="6">
-        <v>0</v>
+        <v>55.8</v>
       </c>
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
@@ -16165,10 +16138,10 @@
         <v>223.2</v>
       </c>
       <c r="AJ180" s="6">
-        <v>0</v>
+        <v>178.56</v>
       </c>
       <c r="AK180" s="6">
-        <v>0</v>
+        <v>178.56</v>
       </c>
       <c r="AL180" s="5">
         <v>348.75</v>
@@ -16177,10 +16150,10 @@
         <v>278.75</v>
       </c>
       <c r="AN180" s="6">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="AO180" s="6">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="AP180" s="5"/>
       <c r="AQ180" s="5"/>
@@ -16197,10 +16170,10 @@
         <v>1191.95</v>
       </c>
       <c r="AZ180" s="6">
-        <v>0</v>
+        <v>1127.1599999999999</v>
       </c>
       <c r="BA180" s="6">
-        <v>0</v>
+        <v>953.56</v>
       </c>
     </row>
     <row r="181" spans="1:53" x14ac:dyDescent="0.3">
@@ -16275,10 +16248,10 @@
         <v>8.6</v>
       </c>
       <c r="H182" s="6">
-        <v>0</v>
+        <v>7.68</v>
       </c>
       <c r="I182" s="6">
-        <v>0</v>
+        <v>6.88</v>
       </c>
       <c r="J182" s="5">
         <v>4.8</v>
@@ -16287,10 +16260,10 @@
         <v>4.8</v>
       </c>
       <c r="L182" s="6">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="M182" s="6">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
@@ -16307,10 +16280,10 @@
         <v>48</v>
       </c>
       <c r="X182" s="6">
-        <v>0</v>
+        <v>38.4</v>
       </c>
       <c r="Y182" s="6">
-        <v>0</v>
+        <v>38.4</v>
       </c>
       <c r="Z182" s="5"/>
       <c r="AA182" s="5"/>
@@ -16343,10 +16316,10 @@
         <v>61.4</v>
       </c>
       <c r="AZ182" s="6">
-        <v>0</v>
+        <v>49.92</v>
       </c>
       <c r="BA182" s="6">
-        <v>0</v>
+        <v>49.12</v>
       </c>
     </row>
     <row r="183" spans="1:53" x14ac:dyDescent="0.3">
@@ -16478,10 +16451,10 @@
         <v>216</v>
       </c>
       <c r="H185" s="6">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I185" s="6">
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="J185" s="5"/>
       <c r="K185" s="5"/>
@@ -16494,10 +16467,10 @@
         <v>45</v>
       </c>
       <c r="P185" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Q185" s="6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="R185" s="5">
         <v>225</v>
@@ -16506,10 +16479,10 @@
         <v>191</v>
       </c>
       <c r="T185" s="6">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="U185" s="6">
-        <v>0</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="V185" s="5">
         <v>1140</v>
@@ -16518,10 +16491,10 @@
         <v>1140</v>
       </c>
       <c r="X185" s="6">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="Y185" s="6">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="Z185" s="5"/>
       <c r="AA185" s="5"/>
@@ -16534,10 +16507,10 @@
         <v>1045</v>
       </c>
       <c r="AF185" s="6">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="AG185" s="6">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="AH185" s="5"/>
       <c r="AI185" s="5"/>
@@ -16554,10 +16527,10 @@
         <v>750</v>
       </c>
       <c r="AR185" s="6">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="AS185" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AT185" s="5">
         <v>570</v>
@@ -16566,10 +16539,10 @@
         <v>570</v>
       </c>
       <c r="AV185" s="6">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="AW185" s="6">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="AX185" s="5">
         <v>4170</v>
@@ -16578,10 +16551,10 @@
         <v>3957</v>
       </c>
       <c r="AZ185" s="6">
-        <v>0</v>
+        <v>3336</v>
       </c>
       <c r="BA185" s="6">
-        <v>0</v>
+        <v>3165.6</v>
       </c>
     </row>
     <row r="186" spans="1:53" x14ac:dyDescent="0.3">
@@ -16723,10 +16696,10 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="W188" s="5">
-        <v>0</v>
+        <v>641.25</v>
       </c>
       <c r="X188" s="6">
         <v>570</v>
@@ -16743,10 +16716,10 @@
       <c r="AF188" s="6"/>
       <c r="AG188" s="6"/>
       <c r="AH188" s="5">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="AI188" s="5">
-        <v>0</v>
+        <v>1044.375</v>
       </c>
       <c r="AJ188" s="6">
         <v>864</v>
@@ -16755,10 +16728,10 @@
         <v>835.5</v>
       </c>
       <c r="AL188" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="AM188" s="5">
-        <v>0</v>
+        <v>712.5</v>
       </c>
       <c r="AN188" s="6">
         <v>570</v>
@@ -16767,10 +16740,10 @@
         <v>570</v>
       </c>
       <c r="AP188" s="5">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="AQ188" s="5">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="AR188" s="6">
         <v>225</v>
@@ -16783,10 +16756,10 @@
       <c r="AV188" s="6"/>
       <c r="AW188" s="6"/>
       <c r="AX188" s="5">
-        <v>0</v>
+        <v>2786.25</v>
       </c>
       <c r="AY188" s="5">
-        <v>0</v>
+        <v>2679.375</v>
       </c>
       <c r="AZ188" s="6">
         <v>2229</v>
@@ -16926,10 +16899,10 @@
       <c r="L191" s="6"/>
       <c r="M191" s="6"/>
       <c r="N191" s="5">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="O191" s="5">
-        <v>0</v>
+        <v>236.25</v>
       </c>
       <c r="P191" s="6">
         <v>210</v>
@@ -16946,10 +16919,10 @@
       <c r="X191" s="6"/>
       <c r="Y191" s="6"/>
       <c r="Z191" s="5">
-        <v>0</v>
+        <v>281.25</v>
       </c>
       <c r="AA191" s="5">
-        <v>0</v>
+        <v>210.9375</v>
       </c>
       <c r="AB191" s="6">
         <v>225</v>
@@ -16970,10 +16943,10 @@
       <c r="AN191" s="6"/>
       <c r="AO191" s="6"/>
       <c r="AP191" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AQ191" s="5">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="AR191" s="6">
         <v>600</v>
@@ -16982,10 +16955,10 @@
         <v>600</v>
       </c>
       <c r="AT191" s="5">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AU191" s="5">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="AV191" s="6">
         <v>120</v>
@@ -16994,10 +16967,10 @@
         <v>114</v>
       </c>
       <c r="AX191" s="5">
-        <v>0</v>
+        <v>1443.75</v>
       </c>
       <c r="AY191" s="5">
-        <v>0</v>
+        <v>1339.6875</v>
       </c>
       <c r="AZ191" s="6">
         <v>1155</v>
@@ -17072,10 +17045,10 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="5">
-        <v>0</v>
+        <v>1535.625</v>
       </c>
       <c r="G193" s="5">
-        <v>0</v>
+        <v>1151.7188000000001</v>
       </c>
       <c r="H193" s="6">
         <v>1228.5</v>
@@ -17092,10 +17065,10 @@
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="5">
-        <v>0</v>
+        <v>329.25</v>
       </c>
       <c r="S193" s="5">
-        <v>0</v>
+        <v>329.25</v>
       </c>
       <c r="T193" s="6">
         <v>263.39999999999998</v>
@@ -17128,10 +17101,10 @@
       <c r="AR193" s="6"/>
       <c r="AS193" s="6"/>
       <c r="AT193" s="5">
-        <v>0</v>
+        <v>1097.5</v>
       </c>
       <c r="AU193" s="5">
-        <v>0</v>
+        <v>1097.5</v>
       </c>
       <c r="AV193" s="6">
         <v>878</v>
@@ -17140,10 +17113,10 @@
         <v>878</v>
       </c>
       <c r="AX193" s="5">
-        <v>0</v>
+        <v>2962.375</v>
       </c>
       <c r="AY193" s="5">
-        <v>0</v>
+        <v>2578.4688000000001</v>
       </c>
       <c r="AZ193" s="6">
         <v>2369.9</v>
@@ -17214,10 +17187,10 @@
         <v>80</v>
       </c>
       <c r="B195" s="5">
-        <v>0</v>
+        <v>347.5</v>
       </c>
       <c r="C195" s="5">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="D195" s="6">
         <v>278</v>
@@ -17226,10 +17199,10 @@
         <v>222.4</v>
       </c>
       <c r="F195" s="5">
-        <v>0</v>
+        <v>364.875</v>
       </c>
       <c r="G195" s="5">
-        <v>0</v>
+        <v>310.1438</v>
       </c>
       <c r="H195" s="6">
         <v>291.89999999999998</v>
@@ -17246,10 +17219,10 @@
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
       <c r="R195" s="5">
-        <v>0</v>
+        <v>261.75</v>
       </c>
       <c r="S195" s="5">
-        <v>0</v>
+        <v>235.57499999999999</v>
       </c>
       <c r="T195" s="6">
         <v>209.4</v>
@@ -17258,10 +17231,10 @@
         <v>188.46</v>
       </c>
       <c r="V195" s="5">
-        <v>0</v>
+        <v>654.375</v>
       </c>
       <c r="W195" s="5">
-        <v>0</v>
+        <v>621.65620000000001</v>
       </c>
       <c r="X195" s="6">
         <v>523.5</v>
@@ -17282,10 +17255,10 @@
       <c r="AJ195" s="6"/>
       <c r="AK195" s="6"/>
       <c r="AL195" s="5">
-        <v>0</v>
+        <v>436.25</v>
       </c>
       <c r="AM195" s="5">
-        <v>0</v>
+        <v>436.25</v>
       </c>
       <c r="AN195" s="6">
         <v>349</v>
@@ -17294,10 +17267,10 @@
         <v>349</v>
       </c>
       <c r="AP195" s="5">
-        <v>0</v>
+        <v>327.1875</v>
       </c>
       <c r="AQ195" s="5">
-        <v>0</v>
+        <v>310.82810000000001</v>
       </c>
       <c r="AR195" s="6">
         <v>261.75</v>
@@ -17310,10 +17283,10 @@
       <c r="AV195" s="6"/>
       <c r="AW195" s="6"/>
       <c r="AX195" s="5">
-        <v>0</v>
+        <v>2391.9375</v>
       </c>
       <c r="AY195" s="5">
-        <v>0</v>
+        <v>2192.4531000000002</v>
       </c>
       <c r="AZ195" s="6">
         <v>1913.5500000000002</v>
@@ -17384,10 +17357,10 @@
         <v>84</v>
       </c>
       <c r="B197" s="5">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="C197" s="5">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="D197" s="6">
         <v>312</v>
@@ -17396,10 +17369,10 @@
         <v>312</v>
       </c>
       <c r="F197" s="5">
-        <v>0</v>
+        <v>1755</v>
       </c>
       <c r="G197" s="5">
-        <v>0</v>
+        <v>1404</v>
       </c>
       <c r="H197" s="6">
         <v>1404</v>
@@ -17420,10 +17393,10 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="5">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="W197" s="5">
-        <v>0</v>
+        <v>2301</v>
       </c>
       <c r="X197" s="6">
         <v>1872</v>
@@ -17444,10 +17417,10 @@
       <c r="AJ197" s="6"/>
       <c r="AK197" s="6"/>
       <c r="AL197" s="5">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="AM197" s="5">
-        <v>0</v>
+        <v>1462.5</v>
       </c>
       <c r="AN197" s="6">
         <v>1560</v>
@@ -17460,10 +17433,10 @@
       <c r="AR197" s="6"/>
       <c r="AS197" s="6"/>
       <c r="AT197" s="5">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AU197" s="5">
-        <v>0</v>
+        <v>370.5</v>
       </c>
       <c r="AV197" s="6">
         <v>312</v>
@@ -17472,10 +17445,10 @@
         <v>296.39999999999998</v>
       </c>
       <c r="AX197" s="5">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AY197" s="5">
-        <v>0</v>
+        <v>5928</v>
       </c>
       <c r="AZ197" s="6">
         <v>5460</v>
@@ -17554,10 +17527,10 @@
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="5">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="K199" s="5">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="L199" s="6">
         <v>1500</v>
@@ -17570,10 +17543,10 @@
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
       <c r="R199" s="5">
-        <v>0</v>
+        <v>1406.25</v>
       </c>
       <c r="S199" s="5">
-        <v>0</v>
+        <v>1195.3125</v>
       </c>
       <c r="T199" s="6">
         <v>1125</v>
@@ -17586,10 +17559,10 @@
       <c r="X199" s="6"/>
       <c r="Y199" s="6"/>
       <c r="Z199" s="5">
-        <v>0</v>
+        <v>4531.25</v>
       </c>
       <c r="AA199" s="5">
-        <v>0</v>
+        <v>4531.25</v>
       </c>
       <c r="AB199" s="6">
         <v>3625</v>
@@ -17610,10 +17583,10 @@
       <c r="AN199" s="6"/>
       <c r="AO199" s="6"/>
       <c r="AP199" s="5">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="AQ199" s="5">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="AR199" s="6">
         <v>1500</v>
@@ -17626,10 +17599,10 @@
       <c r="AV199" s="6"/>
       <c r="AW199" s="6"/>
       <c r="AX199" s="5">
-        <v>0</v>
+        <v>9687.5</v>
       </c>
       <c r="AY199" s="5">
-        <v>0</v>
+        <v>9476.5625</v>
       </c>
       <c r="AZ199" s="6">
         <v>7750</v>
@@ -17775,10 +17748,10 @@
         <v>540</v>
       </c>
       <c r="P202" s="6">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="Q202" s="6">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="R202" s="5"/>
       <c r="S202" s="5"/>
@@ -17795,10 +17768,10 @@
         <v>633</v>
       </c>
       <c r="AB202" s="6">
-        <v>0</v>
+        <v>526.4</v>
       </c>
       <c r="AC202" s="6">
-        <v>0</v>
+        <v>506.4</v>
       </c>
       <c r="AD202" s="5"/>
       <c r="AE202" s="5"/>
@@ -17819,10 +17792,10 @@
         <v>319</v>
       </c>
       <c r="AR202" s="6">
-        <v>0</v>
+        <v>268.8</v>
       </c>
       <c r="AS202" s="6">
-        <v>0</v>
+        <v>255.2</v>
       </c>
       <c r="AT202" s="5">
         <v>1532.5</v>
@@ -17831,10 +17804,10 @@
         <v>1532.5</v>
       </c>
       <c r="AV202" s="6">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="AW202" s="6">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="AX202" s="5">
         <v>3066.5</v>
@@ -17843,10 +17816,10 @@
         <v>3024.5</v>
       </c>
       <c r="AZ202" s="6">
-        <v>0</v>
+        <v>2453.2000000000003</v>
       </c>
       <c r="BA202" s="6">
-        <v>0</v>
+        <v>2419.6</v>
       </c>
     </row>
     <row r="203" spans="1:53" x14ac:dyDescent="0.3">
@@ -17992,10 +17965,10 @@
       <c r="X205" s="6"/>
       <c r="Y205" s="6"/>
       <c r="Z205" s="5">
-        <v>0</v>
+        <v>99.375</v>
       </c>
       <c r="AA205" s="5">
-        <v>0</v>
+        <v>99.375</v>
       </c>
       <c r="AB205" s="6">
         <v>79.5</v>
@@ -18004,10 +17977,10 @@
         <v>79.5</v>
       </c>
       <c r="AD205" s="5">
-        <v>0</v>
+        <v>496.875</v>
       </c>
       <c r="AE205" s="5">
-        <v>0</v>
+        <v>496.875</v>
       </c>
       <c r="AF205" s="6">
         <v>397.5</v>
@@ -18016,10 +17989,10 @@
         <v>397.5</v>
       </c>
       <c r="AH205" s="5">
-        <v>0</v>
+        <v>1308.4375</v>
       </c>
       <c r="AI205" s="5">
-        <v>0</v>
+        <v>1146.125</v>
       </c>
       <c r="AJ205" s="6">
         <v>1046.75</v>
@@ -18040,10 +18013,10 @@
       <c r="AV205" s="6"/>
       <c r="AW205" s="6"/>
       <c r="AX205" s="5">
-        <v>0</v>
+        <v>1904.6875</v>
       </c>
       <c r="AY205" s="5">
-        <v>0</v>
+        <v>1742.375</v>
       </c>
       <c r="AZ205" s="6">
         <v>1523.75</v>
@@ -18183,10 +18156,10 @@
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="5">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O208" s="5">
-        <v>0</v>
+        <v>1625</v>
       </c>
       <c r="P208" s="6">
         <v>1360</v>
@@ -18223,10 +18196,10 @@
       <c r="AR208" s="6"/>
       <c r="AS208" s="6"/>
       <c r="AT208" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU208" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AV208" s="6">
         <v>400</v>
@@ -18235,10 +18208,10 @@
         <v>400</v>
       </c>
       <c r="AX208" s="5">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="AY208" s="5">
-        <v>0</v>
+        <v>2125</v>
       </c>
       <c r="AZ208" s="6">
         <v>1760</v>
@@ -18309,10 +18282,10 @@
         <v>85</v>
       </c>
       <c r="B210" s="5">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="C210" s="5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D210" s="6">
         <v>384</v>
@@ -18329,10 +18302,10 @@
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
       <c r="N210" s="5">
-        <v>0</v>
+        <v>1875</v>
       </c>
       <c r="O210" s="5">
-        <v>0</v>
+        <v>1593.75</v>
       </c>
       <c r="P210" s="6">
         <v>1500</v>
@@ -18349,10 +18322,10 @@
       <c r="X210" s="6"/>
       <c r="Y210" s="6"/>
       <c r="Z210" s="5">
-        <v>0</v>
+        <v>1312.5</v>
       </c>
       <c r="AA210" s="5">
-        <v>0</v>
+        <v>1312.5</v>
       </c>
       <c r="AB210" s="6">
         <v>1050</v>
@@ -18369,10 +18342,10 @@
       <c r="AJ210" s="6"/>
       <c r="AK210" s="6"/>
       <c r="AL210" s="5">
-        <v>0</v>
+        <v>1312.5</v>
       </c>
       <c r="AM210" s="5">
-        <v>0</v>
+        <v>1312.5</v>
       </c>
       <c r="AN210" s="6">
         <v>1050</v>
@@ -18389,10 +18362,10 @@
       <c r="AV210" s="6"/>
       <c r="AW210" s="6"/>
       <c r="AX210" s="5">
-        <v>0</v>
+        <v>4980</v>
       </c>
       <c r="AY210" s="5">
-        <v>0</v>
+        <v>4674.75</v>
       </c>
       <c r="AZ210" s="6">
         <v>3984</v>
@@ -18526,10 +18499,10 @@
         <v>498</v>
       </c>
       <c r="D213" s="6">
-        <v>0</v>
+        <v>513.6</v>
       </c>
       <c r="E213" s="6">
-        <v>0</v>
+        <v>398.4</v>
       </c>
       <c r="F213" s="5">
         <v>348.09999999999997</v>
@@ -18538,10 +18511,10 @@
         <v>337.09999999999997</v>
       </c>
       <c r="H213" s="6">
-        <v>0</v>
+        <v>278.48</v>
       </c>
       <c r="I213" s="6">
-        <v>0</v>
+        <v>269.68</v>
       </c>
       <c r="J213" s="5">
         <v>148.5</v>
@@ -18550,10 +18523,10 @@
         <v>148.5</v>
       </c>
       <c r="L213" s="6">
-        <v>0</v>
+        <v>118.8</v>
       </c>
       <c r="M213" s="6">
-        <v>0</v>
+        <v>118.8</v>
       </c>
       <c r="N213" s="5">
         <v>795</v>
@@ -18562,10 +18535,10 @@
         <v>795</v>
       </c>
       <c r="P213" s="6">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="Q213" s="6">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="R213" s="5"/>
       <c r="S213" s="5"/>
@@ -18578,10 +18551,10 @@
         <v>150</v>
       </c>
       <c r="X213" s="6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y213" s="6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z213" s="5">
         <v>1765.4</v>
@@ -18590,10 +18563,10 @@
         <v>1749.4</v>
       </c>
       <c r="AB213" s="6">
-        <v>0</v>
+        <v>1412.32</v>
       </c>
       <c r="AC213" s="6">
-        <v>0</v>
+        <v>1399.52</v>
       </c>
       <c r="AD213" s="5"/>
       <c r="AE213" s="5"/>
@@ -18606,10 +18579,10 @@
         <v>641.4</v>
       </c>
       <c r="AJ213" s="6">
-        <v>0</v>
+        <v>545.12</v>
       </c>
       <c r="AK213" s="6">
-        <v>0</v>
+        <v>513.12</v>
       </c>
       <c r="AL213" s="5">
         <v>187.5</v>
@@ -18618,10 +18591,10 @@
         <v>187.5</v>
       </c>
       <c r="AN213" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AO213" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AP213" s="5">
         <v>75</v>
@@ -18630,10 +18603,10 @@
         <v>60</v>
       </c>
       <c r="AR213" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS213" s="6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AT213" s="5">
         <v>1062.5</v>
@@ -18642,10 +18615,10 @@
         <v>962.5</v>
       </c>
       <c r="AV213" s="6">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="AW213" s="6">
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="AX213" s="5">
         <v>5855.4</v>
@@ -18654,10 +18627,10 @@
         <v>5529.4</v>
       </c>
       <c r="AZ213" s="6">
-        <v>0</v>
+        <v>4684.32</v>
       </c>
       <c r="BA213" s="6">
-        <v>0</v>
+        <v>4423.5199999999995</v>
       </c>
     </row>
     <row r="214" spans="1:53" x14ac:dyDescent="0.3">
@@ -18785,10 +18758,10 @@
         <v>187.38</v>
       </c>
       <c r="D216" s="6">
-        <v>0</v>
+        <v>149.904</v>
       </c>
       <c r="E216" s="6">
-        <v>0</v>
+        <v>149.904</v>
       </c>
       <c r="F216" s="5">
         <v>1668</v>
@@ -18797,10 +18770,10 @@
         <v>1634</v>
       </c>
       <c r="H216" s="6">
-        <v>0</v>
+        <v>1334.4</v>
       </c>
       <c r="I216" s="6">
-        <v>0</v>
+        <v>1307.2</v>
       </c>
       <c r="J216" s="5">
         <v>747</v>
@@ -18809,10 +18782,10 @@
         <v>747</v>
       </c>
       <c r="L216" s="6">
-        <v>0</v>
+        <v>597.6</v>
       </c>
       <c r="M216" s="6">
-        <v>0</v>
+        <v>597.6</v>
       </c>
       <c r="N216" s="5"/>
       <c r="O216" s="5"/>
@@ -18837,10 +18810,10 @@
         <v>2195</v>
       </c>
       <c r="AF216" s="6">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="AG216" s="6">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="AH216" s="5">
         <v>936.9</v>
@@ -18849,10 +18822,10 @@
         <v>795.9</v>
       </c>
       <c r="AJ216" s="6">
-        <v>0</v>
+        <v>749.52</v>
       </c>
       <c r="AK216" s="6">
-        <v>0</v>
+        <v>636.72</v>
       </c>
       <c r="AL216" s="5">
         <v>655.83</v>
@@ -18861,10 +18834,10 @@
         <v>524.83000000000004</v>
       </c>
       <c r="AN216" s="6">
-        <v>0</v>
+        <v>524.66399999999999</v>
       </c>
       <c r="AO216" s="6">
-        <v>0</v>
+        <v>419.86399999999998</v>
       </c>
       <c r="AP216" s="5">
         <v>63</v>
@@ -18873,10 +18846,10 @@
         <v>60</v>
       </c>
       <c r="AR216" s="6">
-        <v>0</v>
+        <v>50.4</v>
       </c>
       <c r="AS216" s="6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AT216" s="5">
         <v>1405.35</v>
@@ -18885,10 +18858,10 @@
         <v>1405.35</v>
       </c>
       <c r="AV216" s="6">
-        <v>0</v>
+        <v>1124.28</v>
       </c>
       <c r="AW216" s="6">
-        <v>0</v>
+        <v>1124.28</v>
       </c>
       <c r="AX216" s="5">
         <v>7858.4599999999991</v>
@@ -18897,10 +18870,10 @@
         <v>7549.4599999999991</v>
       </c>
       <c r="AZ216" s="6">
-        <v>0</v>
+        <v>6286.7679999999991</v>
       </c>
       <c r="BA216" s="6">
-        <v>0</v>
+        <v>6039.5679999999993</v>
       </c>
     </row>
     <row r="217" spans="1:53" x14ac:dyDescent="0.3">
@@ -19032,10 +19005,10 @@
         <v>1750</v>
       </c>
       <c r="H219" s="6">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="I219" s="6">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
@@ -19064,10 +19037,10 @@
         <v>750</v>
       </c>
       <c r="AF219" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AG219" s="6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AH219" s="5"/>
       <c r="AI219" s="5"/>
@@ -19080,10 +19053,10 @@
         <v>960</v>
       </c>
       <c r="AN219" s="6">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO219" s="6">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="AP219" s="5"/>
       <c r="AQ219" s="5"/>
@@ -19096,10 +19069,10 @@
         <v>1600</v>
       </c>
       <c r="AV219" s="6">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="AW219" s="6">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="AX219" s="5">
         <v>5300</v>
@@ -19108,10 +19081,10 @@
         <v>5060</v>
       </c>
       <c r="AZ219" s="6">
-        <v>0</v>
+        <v>4240</v>
       </c>
       <c r="BA219" s="6">
-        <v>0</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="220" spans="1:53" x14ac:dyDescent="0.3">
@@ -19218,10 +19191,10 @@
         <v>76</v>
       </c>
       <c r="AN221" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AO221" s="6">
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="AP221" s="5">
         <v>720</v>
@@ -19230,10 +19203,10 @@
         <v>720</v>
       </c>
       <c r="AR221" s="6">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="AS221" s="6">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="AT221" s="5"/>
       <c r="AU221" s="5"/>
@@ -19246,10 +19219,10 @@
         <v>796</v>
       </c>
       <c r="AZ221" s="6">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="BA221" s="6">
-        <v>0</v>
+        <v>636.79999999999995</v>
       </c>
     </row>
     <row r="222" spans="1:53" x14ac:dyDescent="0.3">
@@ -19385,10 +19358,10 @@
         <v>448</v>
       </c>
       <c r="L224" s="6">
-        <v>0</v>
+        <v>358.4</v>
       </c>
       <c r="M224" s="6">
-        <v>0</v>
+        <v>358.4</v>
       </c>
       <c r="N224" s="5">
         <v>328.1</v>
@@ -19397,10 +19370,10 @@
         <v>328.1</v>
       </c>
       <c r="P224" s="6">
-        <v>0</v>
+        <v>262.48</v>
       </c>
       <c r="Q224" s="6">
-        <v>0</v>
+        <v>262.48</v>
       </c>
       <c r="R224" s="5"/>
       <c r="S224" s="5"/>
@@ -19421,10 +19394,10 @@
         <v>92</v>
       </c>
       <c r="AF224" s="6">
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AG224" s="6">
-        <v>0</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="AH224" s="5"/>
       <c r="AI224" s="5"/>
@@ -19437,10 +19410,10 @@
         <v>135.1</v>
       </c>
       <c r="AN224" s="6">
-        <v>0</v>
+        <v>108.08</v>
       </c>
       <c r="AO224" s="6">
-        <v>0</v>
+        <v>108.08</v>
       </c>
       <c r="AP224" s="5">
         <v>736</v>
@@ -19449,10 +19422,10 @@
         <v>736</v>
       </c>
       <c r="AR224" s="6">
-        <v>0</v>
+        <v>588.79999999999995</v>
       </c>
       <c r="AS224" s="6">
-        <v>0</v>
+        <v>588.79999999999995</v>
       </c>
       <c r="AT224" s="5"/>
       <c r="AU224" s="5"/>
@@ -19465,10 +19438,10 @@
         <v>1739.1999999999998</v>
       </c>
       <c r="AZ224" s="6">
-        <v>0</v>
+        <v>1391.36</v>
       </c>
       <c r="BA224" s="6">
-        <v>0</v>
+        <v>1391.36</v>
       </c>
     </row>
     <row r="225" spans="1:53" x14ac:dyDescent="0.3">
@@ -19598,10 +19571,10 @@
       <c r="H227" s="6"/>
       <c r="I227" s="6"/>
       <c r="J227" s="5">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="K227" s="5">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="L227" s="6">
         <v>165.6</v>
@@ -19610,10 +19583,10 @@
         <v>165.6</v>
       </c>
       <c r="N227" s="5">
-        <v>0</v>
+        <v>647.25</v>
       </c>
       <c r="O227" s="5">
-        <v>0</v>
+        <v>517.79999999999995</v>
       </c>
       <c r="P227" s="6">
         <v>517.79999999999995</v>
@@ -19642,10 +19615,10 @@
       <c r="AJ227" s="6"/>
       <c r="AK227" s="6"/>
       <c r="AL227" s="5">
-        <v>0</v>
+        <v>809.0625</v>
       </c>
       <c r="AM227" s="5">
-        <v>0</v>
+        <v>606.79690000000005</v>
       </c>
       <c r="AN227" s="6">
         <v>647.25</v>
@@ -19654,10 +19627,10 @@
         <v>485.4375</v>
       </c>
       <c r="AP227" s="5">
-        <v>0</v>
+        <v>970.875</v>
       </c>
       <c r="AQ227" s="5">
-        <v>0</v>
+        <v>970.875</v>
       </c>
       <c r="AR227" s="6">
         <v>776.7</v>
@@ -19670,10 +19643,10 @@
       <c r="AV227" s="6"/>
       <c r="AW227" s="6"/>
       <c r="AX227" s="5">
-        <v>0</v>
+        <v>2634.1875</v>
       </c>
       <c r="AY227" s="5">
-        <v>0</v>
+        <v>2302.4719</v>
       </c>
       <c r="AZ227" s="6">
         <v>2107.35</v>
@@ -19811,10 +19784,10 @@
         <v>336</v>
       </c>
       <c r="H230" s="6">
-        <v>0</v>
+        <v>268.8</v>
       </c>
       <c r="I230" s="6">
-        <v>0</v>
+        <v>268.8</v>
       </c>
       <c r="J230" s="5"/>
       <c r="K230" s="5"/>
@@ -19835,10 +19808,10 @@
         <v>681.8</v>
       </c>
       <c r="X230" s="6">
-        <v>0</v>
+        <v>606.24</v>
       </c>
       <c r="Y230" s="6">
-        <v>0</v>
+        <v>545.44000000000005</v>
       </c>
       <c r="Z230" s="5">
         <v>442.05</v>
@@ -19847,10 +19820,10 @@
         <v>442.05</v>
       </c>
       <c r="AB230" s="6">
-        <v>0</v>
+        <v>353.64</v>
       </c>
       <c r="AC230" s="6">
-        <v>0</v>
+        <v>353.64</v>
       </c>
       <c r="AD230" s="5"/>
       <c r="AE230" s="5"/>
@@ -19863,10 +19836,10 @@
         <v>68</v>
       </c>
       <c r="AJ230" s="6">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="AK230" s="6">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="AL230" s="5"/>
       <c r="AM230" s="5"/>
@@ -19883,10 +19856,10 @@
         <v>486.15</v>
       </c>
       <c r="AV230" s="6">
-        <v>0</v>
+        <v>426.52</v>
       </c>
       <c r="AW230" s="6">
-        <v>0</v>
+        <v>388.92</v>
       </c>
       <c r="AX230" s="5">
         <v>2137</v>
@@ -19895,10 +19868,10 @@
         <v>2014</v>
       </c>
       <c r="AZ230" s="6">
-        <v>0</v>
+        <v>1709.6</v>
       </c>
       <c r="BA230" s="6">
-        <v>0</v>
+        <v>1611.2000000000003</v>
       </c>
     </row>
     <row r="231" spans="1:53" x14ac:dyDescent="0.3">
@@ -20026,10 +19999,10 @@
         <v>434.6</v>
       </c>
       <c r="D233" s="6">
-        <v>0</v>
+        <v>463.68</v>
       </c>
       <c r="E233" s="6">
-        <v>0</v>
+        <v>347.68</v>
       </c>
       <c r="F233" s="5">
         <v>372.6</v>
@@ -20038,10 +20011,10 @@
         <v>372.6</v>
       </c>
       <c r="H233" s="6">
-        <v>0</v>
+        <v>298.08</v>
       </c>
       <c r="I233" s="6">
-        <v>0</v>
+        <v>298.08</v>
       </c>
       <c r="J233" s="5"/>
       <c r="K233" s="5"/>
@@ -20070,10 +20043,10 @@
         <v>388.35</v>
       </c>
       <c r="AF233" s="6">
-        <v>0</v>
+        <v>310.68</v>
       </c>
       <c r="AG233" s="6">
-        <v>0</v>
+        <v>310.68</v>
       </c>
       <c r="AH233" s="5"/>
       <c r="AI233" s="5"/>
@@ -20086,10 +20059,10 @@
         <v>310.35000000000002</v>
       </c>
       <c r="AN233" s="6">
-        <v>0</v>
+        <v>310.68</v>
       </c>
       <c r="AO233" s="6">
-        <v>0</v>
+        <v>248.28</v>
       </c>
       <c r="AP233" s="5"/>
       <c r="AQ233" s="5"/>
@@ -20102,10 +20075,10 @@
         <v>58.67</v>
       </c>
       <c r="AV233" s="6">
-        <v>0</v>
+        <v>62.136000000000003</v>
       </c>
       <c r="AW233" s="6">
-        <v>0</v>
+        <v>46.936</v>
       </c>
       <c r="AX233" s="5">
         <v>1806.5700000000002</v>
@@ -20114,10 +20087,10 @@
         <v>1564.5700000000002</v>
       </c>
       <c r="AZ233" s="6">
-        <v>0</v>
+        <v>1445.2560000000001</v>
       </c>
       <c r="BA233" s="6">
-        <v>0</v>
+        <v>1251.6560000000002</v>
       </c>
     </row>
     <row r="234" spans="1:53" x14ac:dyDescent="0.3">
@@ -20239,10 +20212,10 @@
         <v>84</v>
       </c>
       <c r="B236" s="5">
-        <v>0</v>
+        <v>3580.625</v>
       </c>
       <c r="C236" s="5">
-        <v>0</v>
+        <v>3292.625</v>
       </c>
       <c r="D236" s="6">
         <v>2864.5</v>
@@ -20259,10 +20232,10 @@
       <c r="L236" s="6"/>
       <c r="M236" s="6"/>
       <c r="N236" s="5">
-        <v>0</v>
+        <v>186.25</v>
       </c>
       <c r="O236" s="5">
-        <v>0</v>
+        <v>186.25</v>
       </c>
       <c r="P236" s="6">
         <v>149</v>
@@ -20287,10 +20260,10 @@
       <c r="AF236" s="6"/>
       <c r="AG236" s="6"/>
       <c r="AH236" s="5">
-        <v>0</v>
+        <v>55.875</v>
       </c>
       <c r="AI236" s="5">
-        <v>0</v>
+        <v>50.287500000000001</v>
       </c>
       <c r="AJ236" s="6">
         <v>44.7</v>
@@ -20299,10 +20272,10 @@
         <v>40.229999999999997</v>
       </c>
       <c r="AL236" s="5">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="AM236" s="5">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="AN236" s="6">
         <v>1440</v>
@@ -20319,10 +20292,10 @@
       <c r="AV236" s="6"/>
       <c r="AW236" s="6"/>
       <c r="AX236" s="5">
-        <v>0</v>
+        <v>5622.75</v>
       </c>
       <c r="AY236" s="5">
-        <v>0</v>
+        <v>4879.1625000000004</v>
       </c>
       <c r="AZ236" s="6">
         <v>4498.2</v>
@@ -20468,10 +20441,10 @@
         <v>252</v>
       </c>
       <c r="P239" s="6">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="Q239" s="6">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="R239" s="5"/>
       <c r="S239" s="5"/>
@@ -20484,10 +20457,10 @@
         <v>35</v>
       </c>
       <c r="X239" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y239" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z239" s="5"/>
       <c r="AA239" s="5"/>
@@ -20508,10 +20481,10 @@
         <v>56</v>
       </c>
       <c r="AN239" s="6">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="AO239" s="6">
-        <v>0</v>
+        <v>44.8</v>
       </c>
       <c r="AP239" s="5"/>
       <c r="AQ239" s="5"/>
@@ -20524,10 +20497,10 @@
         <v>490</v>
       </c>
       <c r="AV239" s="6">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AW239" s="6">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="AX239" s="5">
         <v>833</v>
@@ -20536,10 +20509,10 @@
         <v>833</v>
       </c>
       <c r="AZ239" s="6">
-        <v>0</v>
+        <v>666.4</v>
       </c>
       <c r="BA239" s="6">
-        <v>0</v>
+        <v>666.4</v>
       </c>
     </row>
     <row r="240" spans="1:53" x14ac:dyDescent="0.3">
@@ -20614,10 +20587,10 @@
         <v>334</v>
       </c>
       <c r="H241" s="6">
-        <v>0</v>
+        <v>314.39999999999998</v>
       </c>
       <c r="I241" s="6">
-        <v>0</v>
+        <v>267.2</v>
       </c>
       <c r="J241" s="5">
         <v>733.6</v>
@@ -20626,10 +20599,10 @@
         <v>733.6</v>
       </c>
       <c r="L241" s="6">
-        <v>0</v>
+        <v>586.88</v>
       </c>
       <c r="M241" s="6">
-        <v>0</v>
+        <v>586.88</v>
       </c>
       <c r="N241" s="5">
         <v>590.4</v>
@@ -20638,10 +20611,10 @@
         <v>590.4</v>
       </c>
       <c r="P241" s="6">
-        <v>0</v>
+        <v>472.32</v>
       </c>
       <c r="Q241" s="6">
-        <v>0</v>
+        <v>472.32</v>
       </c>
       <c r="R241" s="5"/>
       <c r="S241" s="5"/>
@@ -20678,10 +20651,10 @@
         <v>196.8</v>
       </c>
       <c r="AV241" s="6">
-        <v>0</v>
+        <v>157.44</v>
       </c>
       <c r="AW241" s="6">
-        <v>0</v>
+        <v>157.44</v>
       </c>
       <c r="AX241" s="5">
         <v>1913.8</v>
@@ -20690,10 +20663,10 @@
         <v>1854.8</v>
       </c>
       <c r="AZ241" s="6">
-        <v>0</v>
+        <v>1531.04</v>
       </c>
       <c r="BA241" s="6">
-        <v>0</v>
+        <v>1483.84</v>
       </c>
     </row>
     <row r="242" spans="1:53" x14ac:dyDescent="0.3">
@@ -20764,10 +20737,10 @@
         <v>848</v>
       </c>
       <c r="D243" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="E243" s="6">
-        <v>0</v>
+        <v>678.4</v>
       </c>
       <c r="F243" s="5"/>
       <c r="G243" s="5"/>
@@ -20780,10 +20753,10 @@
         <v>1187.2</v>
       </c>
       <c r="L243" s="6">
-        <v>0</v>
+        <v>949.76</v>
       </c>
       <c r="M243" s="6">
-        <v>0</v>
+        <v>949.76</v>
       </c>
       <c r="N243" s="5">
         <v>1060</v>
@@ -20792,10 +20765,10 @@
         <v>1060</v>
       </c>
       <c r="P243" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="Q243" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="R243" s="5"/>
       <c r="S243" s="5"/>
@@ -20824,10 +20797,10 @@
         <v>1240.2</v>
       </c>
       <c r="AN243" s="6">
-        <v>0</v>
+        <v>1034.56</v>
       </c>
       <c r="AO243" s="6">
-        <v>0</v>
+        <v>992.16</v>
       </c>
       <c r="AP243" s="5">
         <v>1060</v>
@@ -20836,10 +20809,10 @@
         <v>1060</v>
       </c>
       <c r="AR243" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="AS243" s="6">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="AT243" s="5">
         <v>1484</v>
@@ -20848,10 +20821,10 @@
         <v>1484</v>
       </c>
       <c r="AV243" s="6">
-        <v>0</v>
+        <v>1187.2</v>
       </c>
       <c r="AW243" s="6">
-        <v>0</v>
+        <v>1187.2</v>
       </c>
       <c r="AX243" s="5">
         <v>7144.4</v>
@@ -20860,10 +20833,10 @@
         <v>6879.4</v>
       </c>
       <c r="AZ243" s="6">
-        <v>0</v>
+        <v>5715.52</v>
       </c>
       <c r="BA243" s="6">
-        <v>0</v>
+        <v>5503.5199999999995</v>
       </c>
     </row>
     <row r="244" spans="1:53" x14ac:dyDescent="0.3">
@@ -20999,10 +20972,10 @@
         <v>128</v>
       </c>
       <c r="L246" s="6">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="M246" s="6">
-        <v>0</v>
+        <v>102.4</v>
       </c>
       <c r="N246" s="5"/>
       <c r="O246" s="5"/>
@@ -21027,10 +21000,10 @@
         <v>240</v>
       </c>
       <c r="AF246" s="6">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AG246" s="6">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AH246" s="5"/>
       <c r="AI246" s="5"/>
@@ -21055,10 +21028,10 @@
         <v>368</v>
       </c>
       <c r="AZ246" s="6">
-        <v>0</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="BA246" s="6">
-        <v>0</v>
+        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="247" spans="1:53" x14ac:dyDescent="0.3">
@@ -21157,10 +21130,10 @@
         <v>2170</v>
       </c>
       <c r="AF248" s="6">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="AG248" s="6">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="AH248" s="5">
         <v>62</v>
@@ -21169,10 +21142,10 @@
         <v>62</v>
       </c>
       <c r="AJ248" s="6">
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="AK248" s="6">
-        <v>0</v>
+        <v>49.6</v>
       </c>
       <c r="AL248" s="5">
         <v>1426</v>
@@ -21181,10 +21154,10 @@
         <v>1426</v>
       </c>
       <c r="AN248" s="6">
-        <v>0</v>
+        <v>1140.8</v>
       </c>
       <c r="AO248" s="6">
-        <v>0</v>
+        <v>1140.8</v>
       </c>
       <c r="AP248" s="5"/>
       <c r="AQ248" s="5"/>
@@ -21197,10 +21170,10 @@
         <v>1686</v>
       </c>
       <c r="AV248" s="6">
-        <v>0</v>
+        <v>1438.3999999999999</v>
       </c>
       <c r="AW248" s="6">
-        <v>0</v>
+        <v>1348.8</v>
       </c>
       <c r="AX248" s="5">
         <v>5456</v>
@@ -21209,10 +21182,10 @@
         <v>5344</v>
       </c>
       <c r="AZ248" s="6">
-        <v>0</v>
+        <v>4364.8</v>
       </c>
       <c r="BA248" s="6">
-        <v>0</v>
+        <v>4275.2</v>
       </c>
     </row>
     <row r="249" spans="1:53" x14ac:dyDescent="0.3">
@@ -21220,160 +21193,160 @@
         <v>69</v>
       </c>
       <c r="B249" s="5">
-        <v>10238.480000000001</v>
+        <v>30375.354999999996</v>
       </c>
       <c r="C249" s="5">
-        <v>8578.48</v>
+        <v>27580.355</v>
       </c>
       <c r="D249" s="6">
-        <v>16109.5</v>
+        <v>24300.284000000003</v>
       </c>
       <c r="E249" s="6">
-        <v>15201.499999999998</v>
+        <v>22064.284</v>
       </c>
       <c r="F249" s="5">
-        <v>13982.7</v>
+        <v>47119.950000000004</v>
       </c>
       <c r="G249" s="5">
-        <v>13816.7</v>
+        <v>45003.937600000005</v>
       </c>
       <c r="H249" s="6">
-        <v>26509.800000000003</v>
+        <v>37695.960000000006</v>
       </c>
       <c r="I249" s="6">
-        <v>24949.790000000005</v>
+        <v>36003.15</v>
       </c>
       <c r="J249" s="5">
-        <v>15850</v>
+        <v>19023.000000000004</v>
       </c>
       <c r="K249" s="5">
-        <v>15767</v>
+        <v>18940.000000000004</v>
       </c>
       <c r="L249" s="6">
-        <v>2538.4</v>
+        <v>15218.4</v>
       </c>
       <c r="M249" s="6">
-        <v>2538.4</v>
+        <v>15152</v>
       </c>
       <c r="N249" s="5">
-        <v>16312.39</v>
+        <v>40782.827499999999</v>
       </c>
       <c r="O249" s="5">
-        <v>16217.39</v>
+        <v>38951.752500000002</v>
       </c>
       <c r="P249" s="6">
-        <v>19576.349999999999</v>
+        <v>32626.262000000002</v>
       </c>
       <c r="Q249" s="6">
-        <v>18187.490000000002</v>
+        <v>31161.401999999995</v>
       </c>
       <c r="R249" s="5">
-        <v>6686.9</v>
+        <v>17604.275000000001</v>
       </c>
       <c r="S249" s="5">
-        <v>6211.9</v>
+        <v>16615.859400000001</v>
       </c>
       <c r="T249" s="6">
-        <v>8733.9</v>
+        <v>14083.42</v>
       </c>
       <c r="U249" s="6">
-        <v>8323.1674999999996</v>
+        <v>13292.687499999998</v>
       </c>
       <c r="V249" s="5">
-        <v>7344.3</v>
+        <v>40389.050000000003</v>
       </c>
       <c r="W249" s="5">
-        <v>6748.3</v>
+        <v>37769.925000000003</v>
       </c>
       <c r="X249" s="6">
-        <v>26435.8</v>
+        <v>32311.240000000005</v>
       </c>
       <c r="Y249" s="6">
-        <v>24817.300000000003</v>
+        <v>30215.940000000002</v>
       </c>
       <c r="Z249" s="5">
-        <v>12765.949999999999</v>
+        <v>37126.074999999997</v>
       </c>
       <c r="AA249" s="5">
-        <v>12314.949999999999</v>
+        <v>34358.815600000002</v>
       </c>
       <c r="AB249" s="6">
-        <v>19488.099999999999</v>
+        <v>29700.86</v>
       </c>
       <c r="AC249" s="6">
-        <v>17635.092499999999</v>
+        <v>27487.052499999998</v>
       </c>
       <c r="AD249" s="5">
-        <v>24338.35</v>
+        <v>31251.787499999999</v>
       </c>
       <c r="AE249" s="5">
-        <v>23846.35</v>
+        <v>30019.003100000002</v>
       </c>
       <c r="AF249" s="6">
-        <v>5530.75</v>
+        <v>25001.43</v>
       </c>
       <c r="AG249" s="6">
-        <v>4938.1224999999995</v>
+        <v>24015.202499999999</v>
       </c>
       <c r="AH249" s="5">
-        <v>3953.45</v>
+        <v>32685.375000000004</v>
       </c>
       <c r="AI249" s="5">
-        <v>3690.45</v>
+        <v>30898.787500000002</v>
       </c>
       <c r="AJ249" s="6">
-        <v>22985.54</v>
+        <v>26148.3</v>
       </c>
       <c r="AK249" s="6">
-        <v>21766.67</v>
+        <v>24719.029999999995</v>
       </c>
       <c r="AL249" s="5">
-        <v>15981.53</v>
+        <v>52218.742499999993</v>
       </c>
       <c r="AM249" s="5">
-        <v>14665.53</v>
+        <v>47787.414399999994</v>
       </c>
       <c r="AN249" s="6">
-        <v>28989.77</v>
+        <v>41774.993999999999</v>
       </c>
       <c r="AO249" s="6">
-        <v>26497.5075</v>
+        <v>38229.931499999999</v>
       </c>
       <c r="AP249" s="5">
-        <v>18419.599999999999</v>
+        <v>38636.612500000003</v>
       </c>
       <c r="AQ249" s="5">
-        <v>17392.599999999999</v>
+        <v>36224.970600000001</v>
       </c>
       <c r="AR249" s="6">
-        <v>16173.61</v>
+        <v>30909.290000000005</v>
       </c>
       <c r="AS249" s="6">
-        <v>15065.896500000001</v>
+        <v>28979.976500000004</v>
       </c>
       <c r="AT249" s="5">
-        <v>19248.969999999998</v>
+        <v>34951.007499999992</v>
       </c>
       <c r="AU249" s="5">
-        <v>18101.969999999998</v>
+        <v>33119.968199999996</v>
       </c>
       <c r="AV249" s="6">
-        <v>12561.63</v>
+        <v>27960.806</v>
       </c>
       <c r="AW249" s="6">
-        <v>12014.398499999999</v>
+        <v>26495.974500000004</v>
       </c>
       <c r="AX249" s="5">
-        <v>165122.62000000002</v>
+        <v>422164.0575</v>
       </c>
       <c r="AY249" s="5">
-        <v>157351.62</v>
+        <v>397270.78889999999</v>
       </c>
       <c r="AZ249" s="6">
-        <v>205633.15000000002</v>
+        <v>337731.2460000001</v>
       </c>
       <c r="BA249" s="6">
-        <v>191935.33500000011</v>
+        <v>317816.63099999999</v>
       </c>
     </row>
   </sheetData>
